--- a/outputs-r202/test-c__Bacilli.xlsx
+++ b/outputs-r202/test-c__Bacilli.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="100">
   <si>
     <t>Row</t>
   </si>
@@ -334,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -344,14 +344,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +371,7 @@
     <col min="1" max="1" width="13.85546875" customWidth="true"/>
     <col min="2" max="2" width="22.7109375" customWidth="true"/>
     <col min="3" max="3" width="22" customWidth="true"/>
-    <col min="4" max="4" width="15.5703125" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="16.5703125" customWidth="true"/>
     <col min="6" max="6" width="16.42578125" customWidth="true"/>
     <col min="7" max="7" width="16.42578125" customWidth="true"/>
@@ -402,6955 +406,6955 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.0928596166039605e-07</v>
+        <v>8.9119699493075031e-08</v>
       </c>
       <c r="C2">
-        <v>9.3278642529968702e-09</v>
+        <v>2.9256387704507063e-09</v>
       </c>
       <c r="D2">
-        <v>7.0143850919565908e-08</v>
+        <v>2.907802136521565e-08</v>
       </c>
       <c r="E2">
-        <v>5.055219250857927e-11</v>
+        <v>5.011029556760008e-06</v>
       </c>
       <c r="F2">
-        <v>2.4013883747117287e-05</v>
+        <v>4.6468696813119176e-10</v>
       </c>
       <c r="G2">
-        <v>5.3759010130951371e-09</v>
+        <v>4.3285894365986534e-12</v>
       </c>
       <c r="H2">
-        <v>0.0082907305469870733</v>
+        <v>0.091007538751851094</v>
       </c>
       <c r="I2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="J2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="K2">
-        <v>1.5092052512442839e-05</v>
+        <v>2.3267016077897855e-06</v>
       </c>
       <c r="L2">
-        <v>1.4555829726036476e-08</v>
+        <v>4.486750806775021e-09</v>
       </c>
       <c r="M2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="N2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="O2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="P2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="Q2">
-        <v>0.30355859212141112</v>
+        <v>0.0019049529972354898</v>
       </c>
       <c r="R2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="S2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="T2">
-        <v>1.8151192545303659e-07</v>
+        <v>6.7101899790982406e-12</v>
       </c>
       <c r="U2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="V2">
-        <v>0.68163837395298121</v>
+        <v>0.90487158169899984</v>
       </c>
       <c r="W2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="X2">
-        <v>0.0001437661042243478</v>
+        <v>0.0010017780373952185</v>
       </c>
       <c r="Y2">
-        <v>0.00075284468417928703</v>
+        <v>0.00072456361597409964</v>
       </c>
       <c r="Z2">
-        <v>2.2902322798511127e-08</v>
+        <v>1.0749707148367296e-08</v>
       </c>
       <c r="AA2">
-        <v>2.0084034587876163e-07</v>
+        <v>2.501150926061254e-12</v>
       </c>
       <c r="AB2">
-        <v>1.6262549181112744e-08</v>
+        <v>5.4328673264266602e-07</v>
       </c>
       <c r="AC2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="AD2">
-        <v>0.0055754563965212164</v>
+        <v>0.00048156704226952611</v>
       </c>
       <c r="AE2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="AF2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="AG2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="AH2">
-        <v>2.2206691144563636e-14</v>
+        <v>2.2201404330539739e-14</v>
       </c>
       <c r="AI2">
         <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.984261365425948</v>
+        <v>0.98145907430751955</v>
       </c>
       <c r="C3">
-        <v>5.2323298362501088e-12</v>
+        <v>4.1970657004443478e-12</v>
       </c>
       <c r="D3">
-        <v>4.7587096087940587e-08</v>
+        <v>4.9670384989820591e-08</v>
       </c>
       <c r="E3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="F3">
-        <v>1.826416329718901e-08</v>
+        <v>2.8456317991871014e-07</v>
       </c>
       <c r="G3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="H3">
-        <v>3.0426394742026433e-12</v>
+        <v>1.6333732870867537e-10</v>
       </c>
       <c r="I3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="J3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="K3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="L3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="M3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="N3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="O3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="P3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="Q3">
-        <v>0.0010709963740314007</v>
+        <v>0.00038216390082966892</v>
       </c>
       <c r="R3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="S3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="T3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="U3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="V3">
-        <v>7.0626352619808962e-07</v>
+        <v>3.3088610188142911e-07</v>
       </c>
       <c r="W3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="X3">
-        <v>8.0265442771307016e-07</v>
+        <v>4.8599093152339406e-07</v>
       </c>
       <c r="Y3">
-        <v>0.014372301105142721</v>
+        <v>0.013761137425280578</v>
       </c>
       <c r="Z3">
-        <v>2.8180046882818282e-06</v>
+        <v>1.2946675087564249e-05</v>
       </c>
       <c r="AA3">
-        <v>0.00029090904439015708</v>
+        <v>0.0043835076554435528</v>
       </c>
       <c r="AB3">
-        <v>4.03107815817089e-09</v>
+        <v>1.3382043280154515e-09</v>
       </c>
       <c r="AC3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="AD3">
-        <v>3.1236789077616209e-08</v>
+        <v>1.7419058118801361e-08</v>
       </c>
       <c r="AE3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="AF3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="AG3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="AH3">
-        <v>2.2202186305974053e-14</v>
+        <v>2.2203116654173669e-14</v>
       </c>
       <c r="AI3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.00030410019832630494</v>
+        <v>0.00060419870220386701</v>
       </c>
       <c r="C4">
-        <v>4.1952832947640354e-11</v>
+        <v>3.7970108356957867e-11</v>
       </c>
       <c r="D4">
-        <v>9.1460194212524396e-12</v>
+        <v>5.6592957013300316e-12</v>
       </c>
       <c r="E4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="F4">
-        <v>2.6075978598743862e-05</v>
+        <v>9.0049539274742352e-05</v>
       </c>
       <c r="G4">
-        <v>9.5260857021229669e-07</v>
+        <v>5.4455474856440675e-07</v>
       </c>
       <c r="H4">
-        <v>9.1668364577784816e-07</v>
+        <v>1.8143855838556213e-06</v>
       </c>
       <c r="I4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="J4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="K4">
-        <v>9.2594876772730668e-10</v>
+        <v>3.2505342227226051e-09</v>
       </c>
       <c r="L4">
-        <v>8.5576095229974697e-12</v>
+        <v>8.3707169739609471e-11</v>
       </c>
       <c r="M4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="N4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="O4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="P4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="Q4">
-        <v>0.9948921134812484</v>
+        <v>0.99525153093332708</v>
       </c>
       <c r="R4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="S4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="T4">
-        <v>3.8781489105072646e-07</v>
+        <v>4.1716333508047002e-07</v>
       </c>
       <c r="U4">
-        <v>1.7708703468642324e-13</v>
+        <v>8.5454430054050353e-13</v>
       </c>
       <c r="V4">
-        <v>5.6678035484204542e-07</v>
+        <v>3.3475841101795198e-07</v>
       </c>
       <c r="W4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="X4">
-        <v>5.5431962093494763e-06</v>
+        <v>1.3052124287933819e-06</v>
       </c>
       <c r="Y4">
-        <v>0.0045353766745110189</v>
+        <v>0.003395436568254652</v>
       </c>
       <c r="Z4">
-        <v>1.1257025484002891e-06</v>
+        <v>2.2525263722181753e-06</v>
       </c>
       <c r="AA4">
-        <v>1.8845907083324184e-06</v>
+        <v>4.3306717588733817e-06</v>
       </c>
       <c r="AB4">
-        <v>0.00023094908027180861</v>
+        <v>0.00064777803923787023</v>
       </c>
       <c r="AC4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="AD4">
-        <v>6.1045180516770302e-09</v>
+        <v>3.3697130948555972e-09</v>
       </c>
       <c r="AE4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="AF4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="AG4">
-        <v>1.1950455780110862e-10</v>
+        <v>1.9631407199689938e-10</v>
       </c>
       <c r="AH4">
-        <v>2.2201885511022836e-14</v>
+        <v>2.2201945124627887e-14</v>
       </c>
       <c r="AI4">
         <v>16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.00031820064074433491</v>
+        <v>0.00059862788172914847</v>
       </c>
       <c r="C5">
-        <v>1.7314236317391158e-11</v>
+        <v>2.6955528582092125e-11</v>
       </c>
       <c r="D5">
-        <v>9.7016288885998221e-12</v>
+        <v>1.2230601870457441e-11</v>
       </c>
       <c r="E5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="F5">
-        <v>3.8820200623063136e-05</v>
+        <v>0.00055229458384318121</v>
       </c>
       <c r="G5">
-        <v>2.3076758772818787e-07</v>
+        <v>1.0837480624771971e-06</v>
       </c>
       <c r="H5">
-        <v>1.1309953645159642e-06</v>
+        <v>1.9112484153084932e-06</v>
       </c>
       <c r="I5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="J5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="K5">
-        <v>8.1785336553931878e-10</v>
+        <v>1.8034972125820464e-08</v>
       </c>
       <c r="L5">
-        <v>5.5546306116970549e-11</v>
+        <v>3.8667663054649098e-11</v>
       </c>
       <c r="M5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="N5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="O5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="P5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="Q5">
-        <v>0.99518772820705548</v>
+        <v>0.99556894584009625</v>
       </c>
       <c r="R5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="S5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="T5">
-        <v>5.4978779644867896e-07</v>
+        <v>3.5967591871555831e-07</v>
       </c>
       <c r="U5">
-        <v>1.0175756420802524e-12</v>
+        <v>1.3298595900085649e-12</v>
       </c>
       <c r="V5">
-        <v>2.3982570506234113e-07</v>
+        <v>3.2002968728019709e-07</v>
       </c>
       <c r="W5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="X5">
-        <v>1.2548984425072579e-06</v>
+        <v>8.4747738292698825e-07</v>
       </c>
       <c r="Y5">
-        <v>0.0035686481773148197</v>
+        <v>0.0023003977550143553</v>
       </c>
       <c r="Z5">
-        <v>4.9716109417773153e-07</v>
+        <v>7.2562624096279248e-06</v>
       </c>
       <c r="AA5">
-        <v>1.7732402209198609e-06</v>
+        <v>6.7118497665687464e-06</v>
       </c>
       <c r="AB5">
-        <v>0.00088092242486796147</v>
+        <v>0.00096122220926838048</v>
       </c>
       <c r="AC5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="AD5">
-        <v>2.6212886027898719e-09</v>
+        <v>2.1467509591099053e-09</v>
       </c>
       <c r="AE5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="AF5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="AG5">
-        <v>1.5015028759864339e-10</v>
+        <v>1.1771881746788326e-09</v>
       </c>
       <c r="AH5">
-        <v>2.2201937870635244e-14</v>
+        <v>2.2201933256185525e-14</v>
       </c>
       <c r="AI5">
         <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.00057961043303144148</v>
+        <v>0.000366634846733469</v>
       </c>
       <c r="C6">
-        <v>1.7862508522621613e-07</v>
+        <v>2.6268420097343309e-07</v>
       </c>
       <c r="D6">
-        <v>3.0990932621618619e-10</v>
+        <v>3.616804733883342e-10</v>
       </c>
       <c r="E6">
-        <v>1.9369549529609368e-12</v>
+        <v>7.9737490272210969e-13</v>
       </c>
       <c r="F6">
-        <v>2.0949473131289908e-08</v>
+        <v>7.8754503994459776e-08</v>
       </c>
       <c r="G6">
-        <v>7.0652370527935766e-06</v>
+        <v>1.1836440054745881e-05</v>
       </c>
       <c r="H6">
-        <v>1.8783982031863454e-10</v>
+        <v>7.8527155044106356e-10</v>
       </c>
       <c r="I6">
-        <v>2.2202185794115294e-14</v>
+        <v>2.2201886997264105e-14</v>
       </c>
       <c r="J6">
-        <v>2.2202185794115294e-14</v>
+        <v>2.2201886997264105e-14</v>
       </c>
       <c r="K6">
-        <v>0.00027559984300273095</v>
+        <v>0.0011175387494829342</v>
       </c>
       <c r="L6">
-        <v>2.0534001775974739e-07</v>
+        <v>1.8713244484636433e-07</v>
       </c>
       <c r="M6">
-        <v>2.2202185794115294e-14</v>
+        <v>2.2201886997264105e-14</v>
       </c>
       <c r="N6">
-        <v>2.2202185794115294e-14</v>
+        <v>2.2201886997264105e-14</v>
       </c>
       <c r="O6">
-        <v>2.2202185794115294e-14</v>
+        <v>2.2201886997264105e-14</v>
       </c>
       <c r="P6">
-        <v>2.2202185794115294e-14</v>
+        <v>2.2201886997264105e-14</v>
       </c>
       <c r="Q6">
-        <v>0.0016666945907398215</v>
+        <v>0.0023793887117474232</v>
       </c>
       <c r="R6">
-        <v>2.2202185794115294e-14</v>
+        <v>2.2201886997264105e-14</v>
       </c>
       <c r="S6">
-        <v>2.2202185794115294e-14</v>
+        <v>2.2201886997264105e-14</v>
       </c>
       <c r="T6">
-        <v>5.7291879651309085e-06</v>
+        <v>4.9094433680907779e-06</v>
       </c>
       <c r="U6">
-        <v>9.0229323656383418e-06</v>
+        <v>9.1376740755414064e-06</v>
       </c>
       <c r="V6">
-        <v>3.0154895275185104e-06</v>
+        <v>5.4098270335197729e-06</v>
       </c>
       <c r="W6">
-        <v>2.2202185794115294e-14</v>
+        <v>2.2201886997264105e-14</v>
       </c>
       <c r="X6">
-        <v>0.00012046980259437094</v>
+        <v>5.2653447360438609e-05</v>
       </c>
       <c r="Y6">
-        <v>0.00074079807345000506</v>
+        <v>0.00033706763648746671</v>
       </c>
       <c r="Z6">
-        <v>1.1302245738646242e-06</v>
+        <v>1.9806926326852047e-06</v>
       </c>
       <c r="AA6">
-        <v>1.4544598795672273e-06</v>
+        <v>2.2900940572579044e-06</v>
       </c>
       <c r="AB6">
-        <v>0.99657938667555079</v>
+        <v>0.99569895475664127</v>
       </c>
       <c r="AC6">
-        <v>2.2202185794115294e-14</v>
+        <v>2.2201886997264105e-14</v>
       </c>
       <c r="AD6">
-        <v>5.7092616813611248e-06</v>
+        <v>3.6403094575176845e-06</v>
       </c>
       <c r="AE6">
-        <v>3.9068611829985907e-09</v>
+        <v>3.4636979927699036e-08</v>
       </c>
       <c r="AF6">
-        <v>2.2202185794115294e-14</v>
+        <v>2.2201886997264105e-14</v>
       </c>
       <c r="AG6">
-        <v>3.9044671950725341e-06</v>
+        <v>7.99301472226415e-06</v>
       </c>
       <c r="AH6">
-        <v>2.2202185794115294e-14</v>
+        <v>2.2201886997264105e-14</v>
       </c>
       <c r="AI6">
         <v>27</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.4419353575999164e-05</v>
+        <v>6.2898939599180016e-05</v>
       </c>
       <c r="C7">
-        <v>9.1689244584165487e-09</v>
+        <v>1.5090432036061138e-08</v>
       </c>
       <c r="D7">
-        <v>5.7583348893025816e-06</v>
+        <v>0.00015208534172565531</v>
       </c>
       <c r="E7">
-        <v>6.8393265231822963e-11</v>
+        <v>7.7943936985453412e-10</v>
       </c>
       <c r="F7">
-        <v>4.2710621638072367e-08</v>
+        <v>3.714728224864309e-07</v>
       </c>
       <c r="G7">
-        <v>1.482571017555851e-07</v>
+        <v>2.7903116368287794e-06</v>
       </c>
       <c r="H7">
-        <v>1.4331632207907064e-09</v>
+        <v>4.3092557860893545e-08</v>
       </c>
       <c r="I7">
-        <v>3.1866282437333361e-14</v>
+        <v>7.9129340570107724e-14</v>
       </c>
       <c r="J7">
-        <v>3.1866282437333361e-14</v>
+        <v>7.9129340570107711e-14</v>
       </c>
       <c r="K7">
-        <v>5.6776850925734847e-11</v>
+        <v>6.9225100956667101e-10</v>
       </c>
       <c r="L7">
-        <v>2.5129093138950731e-11</v>
+        <v>4.8658056257397783e-10</v>
       </c>
       <c r="M7">
-        <v>3.1866282437333361e-14</v>
+        <v>7.9129340570107799e-14</v>
       </c>
       <c r="N7">
-        <v>3.1866282437333361e-14</v>
+        <v>7.9129340570107774e-14</v>
       </c>
       <c r="O7">
-        <v>3.1866282437333361e-14</v>
+        <v>7.9129340570107774e-14</v>
       </c>
       <c r="P7">
-        <v>3.1866282437333361e-14</v>
+        <v>7.9129340570107799e-14</v>
       </c>
       <c r="Q7">
-        <v>0.032167786082907088</v>
+        <v>0.0478720089481324</v>
       </c>
       <c r="R7">
-        <v>3.1866282437333361e-14</v>
+        <v>7.912934057010785e-14</v>
       </c>
       <c r="S7">
-        <v>3.1866282437333247e-14</v>
+        <v>7.9129340570107421e-14</v>
       </c>
       <c r="T7">
-        <v>3.4862628760527296e-07</v>
+        <v>2.5739836514640169e-06</v>
       </c>
       <c r="U7">
-        <v>2.2149478854354242e-12</v>
+        <v>7.8259972594518019e-12</v>
       </c>
       <c r="V7">
-        <v>0.00019322707748294508</v>
+        <v>0.00073640217691791493</v>
       </c>
       <c r="W7">
-        <v>3.1866282437333247e-14</v>
+        <v>7.9129340570105149e-14</v>
       </c>
       <c r="X7">
-        <v>0.93229811836347232</v>
+        <v>0.91105764967011527</v>
       </c>
       <c r="Y7">
-        <v>0.035260426124448983</v>
+        <v>0.039868304005254263</v>
       </c>
       <c r="Z7">
-        <v>3.8503618497252965e-07</v>
+        <v>2.7736304131235941e-06</v>
       </c>
       <c r="AA7">
-        <v>3.3474854970576431e-05</v>
+        <v>0.0002126703176223326</v>
       </c>
       <c r="AB7">
-        <v>3.8993576088234921e-06</v>
+        <v>4.7727301092857558e-06</v>
       </c>
       <c r="AC7">
-        <v>3.1866282437333247e-14</v>
+        <v>7.912934057010525e-14</v>
       </c>
       <c r="AD7">
-        <v>1.9550520287716828e-06</v>
+        <v>2.4638226704803879e-05</v>
       </c>
       <c r="AE7">
-        <v>3.1866282437332345e-14</v>
+        <v>7.912934057010525e-14</v>
       </c>
       <c r="AF7">
-        <v>3.1866282437332345e-14</v>
+        <v>7.9129340570105389e-14</v>
       </c>
       <c r="AG7">
-        <v>1.3402804589198687e-11</v>
+        <v>9.5179962033205387e-11</v>
       </c>
       <c r="AH7">
-        <v>3.1866282437332345e-14</v>
+        <v>7.9129340570105401e-14</v>
       </c>
       <c r="AI7">
         <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.0962870388307205e-05</v>
+        <v>3.0012571262470013e-05</v>
       </c>
       <c r="C8">
-        <v>1.3504849596830688e-08</v>
+        <v>2.9012543865519726e-08</v>
       </c>
       <c r="D8">
-        <v>4.9999062808627836e-09</v>
+        <v>4.4511174129056939e-10</v>
       </c>
       <c r="E8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="F8">
-        <v>8.7558795643494642e-05</v>
+        <v>0.00032300012401043445</v>
       </c>
       <c r="G8">
-        <v>5.5880014755505355e-07</v>
+        <v>2.0640782829240468e-07</v>
       </c>
       <c r="H8">
-        <v>4.5257305818075137e-09</v>
+        <v>2.8483203883067177e-09</v>
       </c>
       <c r="I8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="J8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="K8">
-        <v>2.725947864575685e-05</v>
+        <v>6.1812124414838048e-06</v>
       </c>
       <c r="L8">
-        <v>1.5201719338620091e-08</v>
+        <v>2.3939958724153217e-08</v>
       </c>
       <c r="M8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="N8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="O8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="P8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="Q8">
-        <v>0.022304639677328125</v>
+        <v>0.0056960347314906276</v>
       </c>
       <c r="R8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="S8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="T8">
-        <v>1.6132323389259371e-06</v>
+        <v>2.3667726849865422e-06</v>
       </c>
       <c r="U8">
-        <v>6.0919791787824398e-06</v>
+        <v>2.5611431645966453e-05</v>
       </c>
       <c r="V8">
-        <v>6.6021877608936746e-09</v>
+        <v>8.3944273213022263e-09</v>
       </c>
       <c r="W8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="X8">
-        <v>1.320634617878682e-05</v>
+        <v>7.6152135757823401e-06</v>
       </c>
       <c r="Y8">
-        <v>0.00018654844149435185</v>
+        <v>0.00035449017881230031</v>
       </c>
       <c r="Z8">
-        <v>2.1116504095786794e-06</v>
+        <v>1.643345822258855e-06</v>
       </c>
       <c r="AA8">
-        <v>1.8292812161942371e-05</v>
+        <v>9.6153736680247009e-05</v>
       </c>
       <c r="AB8">
-        <v>0.97731796212950917</v>
+        <v>0.99340407026010347</v>
       </c>
       <c r="AC8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="AD8">
-        <v>1.1928580065899996e-08</v>
+        <v>6.4496444903591263e-09</v>
       </c>
       <c r="AE8">
-        <v>1.0446339419566614e-06</v>
+        <v>2.1000789062595105e-05</v>
       </c>
       <c r="AF8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="AG8">
-        <v>1.2092389371049187e-05</v>
+        <v>3.1542134284012665e-05</v>
       </c>
       <c r="AH8">
-        <v>2.2201716581704365e-14</v>
+        <v>2.2202062517915101e-14</v>
       </c>
       <c r="AI8">
         <v>27</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.0292247392149514e-12</v>
+        <v>5.6726865387287131e-12</v>
       </c>
       <c r="C9">
-        <v>0.00084777936952597905</v>
+        <v>0.018121214402359611</v>
       </c>
       <c r="D9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="E9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="F9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="G9">
-        <v>0.24534010039048132</v>
+        <v>0.10793293176244707</v>
       </c>
       <c r="H9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="I9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="J9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="K9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="L9">
-        <v>0.00029572310465711052</v>
+        <v>0.00085321355582856819</v>
       </c>
       <c r="M9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="N9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="O9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="P9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="Q9">
-        <v>0.7354460507575995</v>
+        <v>0.83168637660795675</v>
       </c>
       <c r="R9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="S9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="T9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="U9">
-        <v>3.342615224020172e-13</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="V9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="W9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="X9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="Y9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="Z9">
-        <v>4.8044363263400059e-13</v>
+        <v>8.690585374134744e-13</v>
       </c>
       <c r="AA9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="AB9">
-        <v>0.018070346372336833</v>
+        <v>0.041406263664288255</v>
       </c>
       <c r="AC9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="AD9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="AE9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="AF9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="AG9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="AH9">
-        <v>2.2215860291104962e-14</v>
+        <v>2.2232988695132219e-14</v>
       </c>
       <c r="AI9">
         <v>16</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.031536875924240877</v>
+        <v>0.01784485785144346</v>
       </c>
       <c r="C10">
-        <v>1.2075866907025205e-06</v>
+        <v>4.3449594479321774e-06</v>
       </c>
       <c r="D10">
-        <v>2.220186221192306e-14</v>
+        <v>2.5344124462785688e-13</v>
       </c>
       <c r="E10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="F10">
-        <v>3.7168254346676833e-14</v>
+        <v>5.393357993594861e-12</v>
       </c>
       <c r="G10">
-        <v>1.850949108952282e-11</v>
+        <v>1.4058414305448059e-10</v>
       </c>
       <c r="H10">
-        <v>4.921177939423864e-14</v>
+        <v>2.7286086739925736e-12</v>
       </c>
       <c r="I10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="J10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="K10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="L10">
-        <v>7.0398875975981382e-08</v>
+        <v>1.5611280691588124e-07</v>
       </c>
       <c r="M10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="N10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="O10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="P10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="Q10">
-        <v>0.96843497312830762</v>
+        <v>0.98210509844049876</v>
       </c>
       <c r="R10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="S10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="T10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="U10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="V10">
-        <v>7.6970274331873883e-10</v>
+        <v>1.7138523174359316e-08</v>
       </c>
       <c r="W10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="X10">
-        <v>3.666312606736049e-08</v>
+        <v>2.1058513530851398e-07</v>
       </c>
       <c r="Y10">
-        <v>2.6833325127670997e-05</v>
+        <v>4.521275580344091e-05</v>
       </c>
       <c r="Z10">
-        <v>1.0387000943256036e-10</v>
+        <v>1.6476399276295486e-10</v>
       </c>
       <c r="AA10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="AB10">
-        <v>3.784338801191604e-11</v>
+        <v>2.2959724862114662e-10</v>
       </c>
       <c r="AC10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="AD10">
-        <v>2.0431752667886171e-09</v>
+        <v>1.0161259840917351e-07</v>
       </c>
       <c r="AE10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="AF10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="AG10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="AH10">
-        <v>2.220186221192306e-14</v>
+        <v>2.2201859004605527e-14</v>
       </c>
       <c r="AI10">
         <v>16</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.3675813161033961e-12</v>
+        <v>7.7858350836979514e-12</v>
       </c>
       <c r="C11">
-        <v>0.024082374275106757</v>
+        <v>0.02629365223051745</v>
       </c>
       <c r="D11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="E11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="F11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="G11">
-        <v>0.050138802696703975</v>
+        <v>0.13135270596141368</v>
       </c>
       <c r="H11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="I11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="J11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="K11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="L11">
-        <v>0.016390222018453006</v>
+        <v>0.001958114554065611</v>
       </c>
       <c r="M11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="N11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="O11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="P11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="Q11">
-        <v>0.89719679456216839</v>
+        <v>0.81135168942280511</v>
       </c>
       <c r="R11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="S11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="T11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="U11">
-        <v>6.262754082191493e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="V11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="W11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="X11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="Y11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="Z11">
-        <v>4.0194702311197112e-13</v>
+        <v>8.0193443662223286e-13</v>
       </c>
       <c r="AA11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="AB11">
-        <v>0.012191806442180301</v>
+        <v>0.029043837822032365</v>
       </c>
       <c r="AC11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="AD11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="AE11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="AF11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="AG11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="AH11">
-        <v>2.2218646220947232e-14</v>
+        <v>2.2236050585654659e-14</v>
       </c>
       <c r="AI11">
         <v>16</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.2554292320005641e-05</v>
+        <v>0.0019739715420137465</v>
       </c>
       <c r="C12">
-        <v>1.32765702712182e-05</v>
+        <v>7.8156822705504283e-05</v>
       </c>
       <c r="D12">
-        <v>6.8976674022015409e-11</v>
+        <v>5.7765370851998554e-13</v>
       </c>
       <c r="E12">
-        <v>1.4822257899697293e-12</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="F12">
-        <v>0.00036914963115846668</v>
+        <v>0.00098226274249442708</v>
       </c>
       <c r="G12">
-        <v>2.2254314489431518e-08</v>
+        <v>9.1361547801169566e-09</v>
       </c>
       <c r="H12">
-        <v>1.8169624406745766e-08</v>
+        <v>2.5919354525542163e-11</v>
       </c>
       <c r="I12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="J12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="K12">
-        <v>1.2615720821362698e-09</v>
+        <v>8.1165938117805734e-13</v>
       </c>
       <c r="L12">
-        <v>0.00010379949537142835</v>
+        <v>6.9853082132230753e-06</v>
       </c>
       <c r="M12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="N12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="O12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="P12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="Q12">
-        <v>0.9937809875474739</v>
+        <v>0.99385166409423087</v>
       </c>
       <c r="R12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="S12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="T12">
-        <v>3.6672490017990969e-13</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="U12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="V12">
-        <v>0.0031351939251663538</v>
+        <v>0.0018158916283017071</v>
       </c>
       <c r="W12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="X12">
-        <v>0.00018954355331096939</v>
+        <v>3.5295463709472194e-05</v>
       </c>
       <c r="Y12">
-        <v>0.00094543395978857129</v>
+        <v>0.0012288182421599046</v>
       </c>
       <c r="Z12">
-        <v>2.6109834083324313e-10</v>
+        <v>3.1157580484277539e-12</v>
       </c>
       <c r="AA12">
-        <v>2.7495347697522777e-09</v>
+        <v>1.4978421475265912e-10</v>
       </c>
       <c r="AB12">
-        <v>3.79269259869978e-07</v>
+        <v>2.7088658182499828e-07</v>
       </c>
       <c r="AC12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="AD12">
-        <v>0.0013896369885764755</v>
+        <v>2.6673952848722928e-05</v>
       </c>
       <c r="AE12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="AF12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="AG12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="AH12">
-        <v>2.2201967610885481e-14</v>
+        <v>2.2202292986093887e-14</v>
       </c>
       <c r="AI12">
         <v>16</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.030302959273421068</v>
+        <v>0.030302954909702057</v>
       </c>
       <c r="C13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680883</v>
       </c>
       <c r="D13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680883</v>
       </c>
       <c r="E13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680883</v>
       </c>
       <c r="F13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680883</v>
       </c>
       <c r="G13">
-        <v>0.030302959273414701</v>
+        <v>0.030302954909712018</v>
       </c>
       <c r="H13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="I13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="J13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="K13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="L13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="M13">
-        <v>0.030302959763687132</v>
+        <v>0.030302956990843007</v>
       </c>
       <c r="N13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="O13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="P13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="Q13">
-        <v>0.030305250556483154</v>
+        <v>0.030305350164098514</v>
       </c>
       <c r="R13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="S13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="T13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="U13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="V13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="W13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="X13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680893</v>
       </c>
       <c r="Y13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="Z13">
-        <v>0.03030301147744462</v>
+        <v>0.030303045554553553</v>
       </c>
       <c r="AA13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="AB13">
-        <v>0.030302959273417383</v>
+        <v>0.030302954909706487</v>
       </c>
       <c r="AC13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="AD13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="AE13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="AF13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="AG13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="AH13">
-        <v>0.030302959273412301</v>
+        <v>0.030302954909680886</v>
       </c>
       <c r="AI13">
         <v>16</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.2669267129646165e-06</v>
+        <v>2.5181134809786727e-06</v>
       </c>
       <c r="C14">
-        <v>1.3925626960036113e-07</v>
+        <v>1.4280604221806999e-08</v>
       </c>
       <c r="D14">
-        <v>2.2209006142936323e-14</v>
+        <v>8.9377914927801447e-13</v>
       </c>
       <c r="E14">
-        <v>2.1577129912680613e-11</v>
+        <v>3.3117071775857028e-11</v>
       </c>
       <c r="F14">
-        <v>1.3113610943653216e-09</v>
+        <v>4.7912795170576375e-09</v>
       </c>
       <c r="G14">
-        <v>1.0983092130550515e-11</v>
+        <v>6.7105989548395303e-11</v>
       </c>
       <c r="H14">
-        <v>2.8727694398563228e-06</v>
+        <v>1.125705869977766e-05</v>
       </c>
       <c r="I14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="J14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="K14">
-        <v>1.0879518898244557e-07</v>
+        <v>3.523314210173192e-08</v>
       </c>
       <c r="L14">
-        <v>0.0015717801347923676</v>
+        <v>1.3610268388377923e-05</v>
       </c>
       <c r="M14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="N14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="O14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="P14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="Q14">
-        <v>0.51503701340991315</v>
+        <v>0.64425834322212761</v>
       </c>
       <c r="R14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="S14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="T14">
-        <v>7.7500083902315769e-09</v>
+        <v>4.6449676768769788e-08</v>
       </c>
       <c r="U14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="V14">
-        <v>0.48273669175727285</v>
+        <v>0.35518963073572934</v>
       </c>
       <c r="W14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="X14">
-        <v>3.1258910170501553e-07</v>
+        <v>6.4594981611824295e-07</v>
       </c>
       <c r="Y14">
-        <v>0.00047157917199931428</v>
+        <v>0.00028153725409406241</v>
       </c>
       <c r="Z14">
-        <v>4.2435802491614727e-10</v>
+        <v>1.532958149244859e-09</v>
       </c>
       <c r="AA14">
-        <v>2.6623023087910249e-11</v>
+        <v>1.2051856983075884e-09</v>
       </c>
       <c r="AB14">
-        <v>2.1262797497635138e-09</v>
+        <v>2.3411292716346925e-09</v>
       </c>
       <c r="AC14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="AD14">
-        <v>0.00017522351776344005</v>
+        <v>0.00024235146223803889</v>
       </c>
       <c r="AE14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="AF14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="AG14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="AH14">
-        <v>2.2209006142936323e-14</v>
+        <v>2.2201795431767818e-14</v>
       </c>
       <c r="AI14">
         <v>16</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.00013222743597224751</v>
+        <v>0.00056873421488823188</v>
       </c>
       <c r="C15">
-        <v>4.8054124667251698e-11</v>
+        <v>3.6101237583396392e-11</v>
       </c>
       <c r="D15">
-        <v>3.4363223648032139e-12</v>
+        <v>2.7383343001888247e-12</v>
       </c>
       <c r="E15">
-        <v>5.2556770057845592e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="F15">
-        <v>4.2031888093150014e-07</v>
+        <v>1.6463467692759061e-05</v>
       </c>
       <c r="G15">
-        <v>7.9350654841768197e-08</v>
+        <v>2.6828570268819145e-07</v>
       </c>
       <c r="H15">
-        <v>1.1656519784730965e-06</v>
+        <v>1.0491025538904092e-06</v>
       </c>
       <c r="I15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="J15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="K15">
-        <v>1.3699878405719339e-11</v>
+        <v>3.7390942016041509e-10</v>
       </c>
       <c r="L15">
-        <v>2.3040528698967679e-10</v>
+        <v>3.4346035503961037e-11</v>
       </c>
       <c r="M15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="N15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="O15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="P15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="Q15">
-        <v>0.99344715302618869</v>
+        <v>0.99460769230185131</v>
       </c>
       <c r="R15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="S15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="T15">
-        <v>6.6023746672224023e-07</v>
+        <v>3.5982225163664464e-07</v>
       </c>
       <c r="U15">
-        <v>2.51345246195482e-13</v>
+        <v>7.4585901200729363e-13</v>
       </c>
       <c r="V15">
-        <v>5.7973157896197545e-07</v>
+        <v>2.7102805787743836e-07</v>
       </c>
       <c r="W15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="X15">
-        <v>6.0306978118281072e-06</v>
+        <v>1.8156663851091709e-06</v>
       </c>
       <c r="Y15">
-        <v>0.0063478837580111221</v>
+        <v>0.0043822653023831183</v>
       </c>
       <c r="Z15">
-        <v>3.4482010078690096e-08</v>
+        <v>8.4691561571319347e-07</v>
       </c>
       <c r="AA15">
-        <v>5.2481855029685137e-07</v>
+        <v>2.2641925992687019e-06</v>
       </c>
       <c r="AB15">
-        <v>6.3234804008122176e-05</v>
+        <v>0.00041796790933144163</v>
       </c>
       <c r="AC15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="AD15">
-        <v>5.3895655356370065e-09</v>
+        <v>1.2288939933559992e-09</v>
       </c>
       <c r="AE15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="AF15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="AG15">
-        <v>1.1338315841880146e-12</v>
+        <v>1.1364113256268806e-10</v>
       </c>
       <c r="AH15">
-        <v>2.22018620483283e-14</v>
+        <v>2.2201984986907164e-14</v>
       </c>
       <c r="AI15">
         <v>16</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4.1901876989766448e-07</v>
+        <v>8.8102638835300164e-07</v>
       </c>
       <c r="C16">
-        <v>2.3664978317709744e-08</v>
+        <v>3.8490024302119945e-09</v>
       </c>
       <c r="D16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="E16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="F16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="G16">
-        <v>6.4303560866032166e-09</v>
+        <v>1.3834408115882181e-08</v>
       </c>
       <c r="H16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="I16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="J16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="K16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="L16">
-        <v>5.8216787819914949e-09</v>
+        <v>6.2211133528982898e-10</v>
       </c>
       <c r="M16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="N16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="O16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="P16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="Q16">
-        <v>0.8830455986266661</v>
+        <v>0.89948471651657436</v>
       </c>
       <c r="R16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="S16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="T16">
-        <v>1.2853531878440506e-13</v>
+        <v>2.8489063899805141e-12</v>
       </c>
       <c r="U16">
-        <v>0.11531232481699544</v>
+        <v>1.216978645763236e-05</v>
       </c>
       <c r="V16">
-        <v>3.0565860850830726e-07</v>
+        <v>2.3027909031232261e-05</v>
       </c>
       <c r="W16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="X16">
-        <v>2.7147019056148058e-13</v>
+        <v>6.3112997906583588e-12</v>
       </c>
       <c r="Y16">
-        <v>1.5283409082484383e-08</v>
+        <v>6.0600791947469032e-07</v>
       </c>
       <c r="Z16">
-        <v>1.8357290115126627e-09</v>
+        <v>4.1984940840361827e-09</v>
       </c>
       <c r="AA16">
-        <v>2.2198321049227286e-14</v>
+        <v>1.1706100521935893e-11</v>
       </c>
       <c r="AB16">
-        <v>1.0368430443611198e-10</v>
+        <v>2.8338632803673627e-10</v>
       </c>
       <c r="AC16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="AD16">
-        <v>0.001641298738280596</v>
+        <v>0.10047857594493856</v>
       </c>
       <c r="AE16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="AF16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="AG16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="AH16">
-        <v>2.2198321049227286e-14</v>
+        <v>2.2201484110688176e-14</v>
       </c>
       <c r="AI16">
         <v>16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7.4962809359920221e-05</v>
+        <v>6.2851596407718973e-05</v>
       </c>
       <c r="C17">
-        <v>1.2408785175190831e-09</v>
+        <v>2.7991480241123285e-09</v>
       </c>
       <c r="D17">
-        <v>4.1855497263910863e-07</v>
+        <v>1.3719809767883409e-06</v>
       </c>
       <c r="E17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="F17">
-        <v>3.8700345824403555e-09</v>
+        <v>4.7872087128058297e-08</v>
       </c>
       <c r="G17">
-        <v>8.6824739879415623e-12</v>
+        <v>1.8697609884709157e-11</v>
       </c>
       <c r="H17">
-        <v>5.8268044228747786e-12</v>
+        <v>3.3431856786641835e-11</v>
       </c>
       <c r="I17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="J17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="K17">
-        <v>4.1807708989081808e-11</v>
+        <v>2.5720130827337307e-10</v>
       </c>
       <c r="L17">
-        <v>1.9675237971509913e-08</v>
+        <v>1.2762742530329205e-08</v>
       </c>
       <c r="M17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="N17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="O17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="P17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="Q17">
-        <v>0.0032738702376860964</v>
+        <v>0.013124726121186828</v>
       </c>
       <c r="R17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="S17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="T17">
-        <v>3.1634889410034164e-09</v>
+        <v>5.3903796261171696e-08</v>
       </c>
       <c r="U17">
-        <v>5.4887734033786422e-05</v>
+        <v>0.00037209563682398284</v>
       </c>
       <c r="V17">
-        <v>8.0975076983325465e-08</v>
+        <v>2.8527787125999828e-07</v>
       </c>
       <c r="W17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="X17">
-        <v>0.042012537035567434</v>
+        <v>0.011411245339894092</v>
       </c>
       <c r="Y17">
-        <v>0.00022519553180980843</v>
+        <v>0.00015934259875123973</v>
       </c>
       <c r="Z17">
-        <v>1.0248377893367658e-06</v>
+        <v>1.3593764758391413e-06</v>
       </c>
       <c r="AA17">
-        <v>3.5127196332267126e-05</v>
+        <v>4.569866336029994e-05</v>
       </c>
       <c r="AB17">
-        <v>0.95432186389863616</v>
+        <v>0.97482089304997277</v>
       </c>
       <c r="AC17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="AD17">
-        <v>2.3176944976847561e-09</v>
+        <v>1.1929795602753748e-08</v>
       </c>
       <c r="AE17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="AF17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="AG17">
-        <v>8.6477330166171199e-10</v>
+        <v>7.810679934559389e-10</v>
       </c>
       <c r="AH17">
-        <v>2.2201240073840407e-14</v>
+        <v>2.2204263419182808e-14</v>
       </c>
       <c r="AI17">
         <v>27</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.3391352151968773e-09</v>
+        <v>2.1038154650589121e-09</v>
       </c>
       <c r="C18">
-        <v>5.2276128273874409e-11</v>
+        <v>6.2929974234828714e-10</v>
       </c>
       <c r="D18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="E18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="F18">
-        <v>5.3398331443804924e-11</v>
+        <v>2.2963814996729377e-09</v>
       </c>
       <c r="G18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="H18">
-        <v>6.3263122576402971e-10</v>
+        <v>3.8763356379352605e-10</v>
       </c>
       <c r="I18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="J18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="K18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="L18">
-        <v>3.7569957670182679e-10</v>
+        <v>2.689043785792108e-09</v>
       </c>
       <c r="M18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="N18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="O18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="P18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="Q18">
-        <v>0.0042698445509888805</v>
+        <v>0.0042603405992737197</v>
       </c>
       <c r="R18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="S18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="T18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="U18">
-        <v>0.00013400348624441642</v>
+        <v>6.2382641675750444e-05</v>
       </c>
       <c r="V18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="W18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="X18">
-        <v>0.000133101653609702</v>
+        <v>0.00025120946976414909</v>
       </c>
       <c r="Y18">
-        <v>1.4070687298802984e-08</v>
+        <v>4.5209966633789327e-08</v>
       </c>
       <c r="Z18">
-        <v>2.748976485679256e-09</v>
+        <v>5.7875819507793243e-09</v>
       </c>
       <c r="AA18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="AB18">
-        <v>0.99546303103353906</v>
+        <v>0.99542600814992721</v>
       </c>
       <c r="AC18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="AD18">
-        <v>2.3474728368487123e-12</v>
+        <v>3.5170315835163985e-11</v>
       </c>
       <c r="AE18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="AF18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="AG18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="AH18">
-        <v>2.2201819038757803e-14</v>
+        <v>2.2201824122785426e-14</v>
       </c>
       <c r="AI18">
         <v>27</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.00013364632403998122</v>
+        <v>0.00016669089216034659</v>
       </c>
       <c r="C19">
-        <v>5.5580181093803634e-10</v>
+        <v>7.0586814859401495e-10</v>
       </c>
       <c r="D19">
-        <v>2.1391802601489929e-07</v>
+        <v>2.5249822318556748e-07</v>
       </c>
       <c r="E19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="F19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="G19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="H19">
-        <v>3.5297767770869493e-10</v>
+        <v>2.2100205012425844e-10</v>
       </c>
       <c r="I19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="J19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="K19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="L19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="M19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="N19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="O19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="P19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="Q19">
-        <v>5.7780736592632977e-06</v>
+        <v>7.6722209209753937e-06</v>
       </c>
       <c r="R19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="S19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="T19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="U19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="V19">
-        <v>1.6687603533055174e-07</v>
+        <v>2.0868481485986386e-07</v>
       </c>
       <c r="W19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="X19">
-        <v>9.9435879377594516e-07</v>
+        <v>1.2145290589970026e-06</v>
       </c>
       <c r="Y19">
-        <v>0.99984108167872388</v>
+        <v>0.99980507135173036</v>
       </c>
       <c r="Z19">
-        <v>2.5380683286392031e-10</v>
+        <v>3.4766756360377507e-10</v>
       </c>
       <c r="AA19">
-        <v>1.895681902909576e-12</v>
+        <v>1.1291094824285453e-12</v>
       </c>
       <c r="AB19">
-        <v>1.8117605751100216e-05</v>
+        <v>1.8888546935870525e-05</v>
       </c>
       <c r="AC19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="AD19">
-        <v>2.2207577079357216e-14</v>
+        <v>2.2207232414364375e-14</v>
       </c>
       <c r="AE19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="AF19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="AG19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="AH19">
-        <v>2.2207577079357197e-14</v>
+        <v>2.2207232414364362e-14</v>
       </c>
       <c r="AI19">
         <v>24</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7.3890204431123476e-11</v>
+        <v>4.0012471784275831e-11</v>
       </c>
       <c r="C20">
-        <v>0.028082921519640022</v>
+        <v>0.0067522907258837882</v>
       </c>
       <c r="D20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="E20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="F20">
-        <v>1.739404074379581e-08</v>
+        <v>2.4204490069632375e-08</v>
       </c>
       <c r="G20">
-        <v>1.0674020616901611e-07</v>
+        <v>1.9492178360526829e-07</v>
       </c>
       <c r="H20">
-        <v>4.6655747502979551e-11</v>
+        <v>1.2426369862876291e-10</v>
       </c>
       <c r="I20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="J20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="K20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="L20">
-        <v>0.023974245473649861</v>
+        <v>0.0071459819199203205</v>
       </c>
       <c r="M20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="N20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="O20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="P20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="Q20">
-        <v>0.94793463010289203</v>
+        <v>0.98608802765517856</v>
       </c>
       <c r="R20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="S20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="T20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="U20">
-        <v>1.1025253664398209e-06</v>
+        <v>1.3156369574630588e-06</v>
       </c>
       <c r="V20">
-        <v>2.7269331064363986e-13</v>
+        <v>5.2355304353434069e-13</v>
       </c>
       <c r="W20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="X20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="Y20">
-        <v>1.1172046620724718e-10</v>
+        <v>3.3761991158477474e-10</v>
       </c>
       <c r="Z20">
-        <v>2.0284103376890593e-08</v>
+        <v>1.4112133369535669e-07</v>
       </c>
       <c r="AA20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="AB20">
-        <v>6.1262409727890797e-06</v>
+        <v>6.0612176123934456e-06</v>
       </c>
       <c r="AC20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="AD20">
-        <v>8.2948614534364443e-07</v>
+        <v>5.9620939766849195e-06</v>
       </c>
       <c r="AE20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="AF20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="AG20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="AH20">
-        <v>2.2206828262660974e-14</v>
+        <v>2.2203230613691298e-14</v>
       </c>
       <c r="AI20">
         <v>16</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7.951386257098144e-07</v>
+        <v>7.9178153737083688e-07</v>
       </c>
       <c r="C21">
-        <v>2.6090285434870804e-08</v>
+        <v>1.0803958091946188e-08</v>
       </c>
       <c r="D21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="E21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="F21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="G21">
-        <v>3.5125097218937502e-08</v>
+        <v>2.5725573830493065e-08</v>
       </c>
       <c r="H21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="I21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="J21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="K21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="L21">
-        <v>8.5785867439512567e-09</v>
+        <v>1.5163665100703645e-09</v>
       </c>
       <c r="M21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="N21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="O21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="P21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="Q21">
-        <v>0.96629701796832301</v>
+        <v>0.95496756378960024</v>
       </c>
       <c r="R21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="S21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="T21">
-        <v>7.0617464401563874e-13</v>
+        <v>1.4012024977723902e-12</v>
       </c>
       <c r="U21">
-        <v>0.018658431061831494</v>
+        <v>0.00089805345522678487</v>
       </c>
       <c r="V21">
-        <v>5.0652994026325081e-06</v>
+        <v>7.9515269807139328e-06</v>
       </c>
       <c r="W21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="X21">
-        <v>1.356509362100694e-12</v>
+        <v>3.0173389280338331e-12</v>
       </c>
       <c r="Y21">
-        <v>8.9684559426352129e-08</v>
+        <v>2.2432017077528163e-07</v>
       </c>
       <c r="Z21">
-        <v>1.1198041642777438e-09</v>
+        <v>3.7479329360988336e-09</v>
       </c>
       <c r="AA21">
-        <v>2.6403792193275014e-13</v>
+        <v>1.7373287906907306e-12</v>
       </c>
       <c r="AB21">
-        <v>2.9968819113759873e-10</v>
+        <v>4.160017475573325e-10</v>
       </c>
       <c r="AC21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="AD21">
-        <v>0.015038529631047376</v>
+        <v>0.044125372910073304</v>
       </c>
       <c r="AE21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="AF21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="AG21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="AH21">
-        <v>2.2204971542293042e-14</v>
+        <v>2.220078111984085e-14</v>
       </c>
       <c r="AI21">
         <v>16</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.0014967955677424485</v>
+        <v>0.0028159002740173961</v>
       </c>
       <c r="C22">
-        <v>7.7647464918162766e-10</v>
+        <v>5.1402262086517771e-10</v>
       </c>
       <c r="D22">
-        <v>3.9131132796099503e-14</v>
+        <v>1.3682577585489244e-13</v>
       </c>
       <c r="E22">
-        <v>1.8943956176480418e-13</v>
+        <v>3.7866103180474968e-14</v>
       </c>
       <c r="F22">
-        <v>1.3774591882398467e-09</v>
+        <v>4.1525252497437466e-08</v>
       </c>
       <c r="G22">
-        <v>3.9474024125972196e-06</v>
+        <v>1.2979391657156618e-05</v>
       </c>
       <c r="H22">
-        <v>2.2040045360843005e-06</v>
+        <v>7.5956161081474423e-06</v>
       </c>
       <c r="I22">
-        <v>3.9131132795999678e-14</v>
+        <v>3.7866103180473365e-14</v>
       </c>
       <c r="J22">
-        <v>3.9131132795999722e-14</v>
+        <v>3.7866103180473454e-14</v>
       </c>
       <c r="K22">
-        <v>2.7750957072207171e-10</v>
+        <v>1.058687815000519e-07</v>
       </c>
       <c r="L22">
-        <v>7.5827438437223209e-08</v>
+        <v>6.0125723666653979e-08</v>
       </c>
       <c r="M22">
-        <v>3.9131132795999753e-14</v>
+        <v>3.7866103180473416e-14</v>
       </c>
       <c r="N22">
-        <v>3.913113279599957e-14</v>
+        <v>3.786610318047334e-14</v>
       </c>
       <c r="O22">
-        <v>3.913113279599957e-14</v>
+        <v>3.786610318047334e-14</v>
       </c>
       <c r="P22">
-        <v>3.9131132795999766e-14</v>
+        <v>3.7866103180473429e-14</v>
       </c>
       <c r="Q22">
-        <v>0.98438130736761131</v>
+        <v>0.95435089097131964</v>
       </c>
       <c r="R22">
-        <v>3.9131132795999766e-14</v>
+        <v>3.7866103180473429e-14</v>
       </c>
       <c r="S22">
-        <v>3.9131132795999564e-14</v>
+        <v>3.7866103180473422e-14</v>
       </c>
       <c r="T22">
-        <v>4.2668954860741972e-08</v>
+        <v>8.4835981648570431e-08</v>
       </c>
       <c r="U22">
-        <v>8.7052258702025214e-12</v>
+        <v>1.9852809661453756e-12</v>
       </c>
       <c r="V22">
-        <v>7.8578936943727921e-07</v>
+        <v>2.7151252674114724e-06</v>
       </c>
       <c r="W22">
-        <v>3.9131132795999551e-14</v>
+        <v>3.7866103180473397e-14</v>
       </c>
       <c r="X22">
-        <v>5.2301921383869706e-05</v>
+        <v>7.5082705024817641e-06</v>
       </c>
       <c r="Y22">
-        <v>0.0050483344924922647</v>
+        <v>0.0035142244816637937</v>
       </c>
       <c r="Z22">
-        <v>1.0705089464622947e-06</v>
+        <v>4.4633513408764644e-06</v>
       </c>
       <c r="AA22">
-        <v>0.00012802243582447443</v>
+        <v>0.00069846105173083939</v>
       </c>
       <c r="AB22">
-        <v>0.0072057355625525735</v>
+        <v>0.034237351743058239</v>
       </c>
       <c r="AC22">
-        <v>3.9131132795999589e-14</v>
+        <v>3.7866103180473441e-14</v>
       </c>
       <c r="AD22">
-        <v>0.0016793740094833034</v>
+        <v>0.0043476168463724429</v>
       </c>
       <c r="AE22">
-        <v>3.913113279599952e-14</v>
+        <v>3.7866103180473441e-14</v>
       </c>
       <c r="AF22">
-        <v>3.913113279599952e-14</v>
+        <v>3.7866103180473441e-14</v>
       </c>
       <c r="AG22">
-        <v>3.662582462889442e-13</v>
+        <v>4.5474571793318484e-12</v>
       </c>
       <c r="AH22">
-        <v>3.913113279599952e-14</v>
+        <v>3.7866103180473435e-14</v>
       </c>
       <c r="AI22">
         <v>16</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.00021062674568633248</v>
+        <v>0.00045588386009839021</v>
       </c>
       <c r="C23">
-        <v>6.3319175222143893e-11</v>
+        <v>4.4750304726837641e-11</v>
       </c>
       <c r="D23">
-        <v>7.400692360854124e-12</v>
+        <v>2.403058031902576e-12</v>
       </c>
       <c r="E23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="F23">
-        <v>1.161002615663504e-06</v>
+        <v>4.0732349268738518e-06</v>
       </c>
       <c r="G23">
-        <v>1.7414111608599557e-07</v>
+        <v>1.7707634575049358e-07</v>
       </c>
       <c r="H23">
-        <v>1.5960890325200194e-06</v>
+        <v>1.0629165531160507e-06</v>
       </c>
       <c r="I23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="J23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="K23">
-        <v>3.4202435856925672e-10</v>
+        <v>1.3683818611677261e-10</v>
       </c>
       <c r="L23">
-        <v>6.2908725368613704e-10</v>
+        <v>8.0167307578725693e-11</v>
       </c>
       <c r="M23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="N23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="O23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="P23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="Q23">
-        <v>0.99432829697781888</v>
+        <v>0.99413501899818735</v>
       </c>
       <c r="R23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="S23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="T23">
-        <v>1.0112958392972798e-06</v>
+        <v>4.2605580737740064e-07</v>
       </c>
       <c r="U23">
-        <v>5.5806013399777123e-13</v>
+        <v>5.7634100147932288e-13</v>
       </c>
       <c r="V23">
-        <v>5.1886899931138224e-07</v>
+        <v>3.2138238541925876e-07</v>
       </c>
       <c r="W23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="X23">
-        <v>3.8372554910287831e-06</v>
+        <v>2.7053691574693302e-06</v>
       </c>
       <c r="Y23">
-        <v>0.0052891666966039669</v>
+        <v>0.0051328841000412443</v>
       </c>
       <c r="Z23">
-        <v>1.6919830933995552e-07</v>
+        <v>3.2802039853906866e-07</v>
       </c>
       <c r="AA23">
-        <v>1.1557223918754175e-06</v>
+        <v>1.4923746935596166e-06</v>
       </c>
       <c r="AB23">
-        <v>0.00016227730261105986</v>
+        <v>0.00026562469526776909</v>
       </c>
       <c r="AC23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="AD23">
-        <v>7.6558458093683313e-09</v>
+        <v>1.6247138904340451e-09</v>
       </c>
       <c r="AE23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="AF23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="AG23">
-        <v>4.9383036029534057e-12</v>
+        <v>2.6377354135186985e-11</v>
       </c>
       <c r="AH23">
-        <v>2.2201877634818615e-14</v>
+        <v>2.2201968686448002e-14</v>
       </c>
       <c r="AI23">
         <v>16</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.00014550629487662832</v>
+        <v>0.00053764534281068761</v>
       </c>
       <c r="C24">
-        <v>3.1395818733220306e-11</v>
+        <v>3.9740695415629355e-11</v>
       </c>
       <c r="D24">
-        <v>1.273668421968844e-11</v>
+        <v>3.0162866522296952e-12</v>
       </c>
       <c r="E24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="F24">
-        <v>1.6058761051610571e-05</v>
+        <v>1.8214557990768759e-05</v>
       </c>
       <c r="G24">
-        <v>3.5567090895171856e-07</v>
+        <v>2.9037138829646569e-07</v>
       </c>
       <c r="H24">
-        <v>2.166958567827992e-06</v>
+        <v>1.2994911128288602e-06</v>
       </c>
       <c r="I24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="J24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="K24">
-        <v>5.1039129006491506e-10</v>
+        <v>4.4678121915621383e-10</v>
       </c>
       <c r="L24">
-        <v>1.1283670676039033e-10</v>
+        <v>4.6710183108719607e-11</v>
       </c>
       <c r="M24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="N24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="O24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="P24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="Q24">
-        <v>0.99519580081440961</v>
+        <v>0.9947037061953079</v>
       </c>
       <c r="R24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="S24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="T24">
-        <v>7.8639698902472106e-07</v>
+        <v>3.7821268956041093e-07</v>
       </c>
       <c r="U24">
-        <v>1.7365897778438362e-13</v>
+        <v>6.2128025278937005e-13</v>
       </c>
       <c r="V24">
-        <v>9.6013502283378695e-07</v>
+        <v>3.3266719845186601e-07</v>
       </c>
       <c r="W24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="X24">
-        <v>6.0351836381308577e-06</v>
+        <v>2.0765816356845645e-06</v>
       </c>
       <c r="Y24">
-        <v>0.0044591956356498826</v>
+        <v>0.0044100511444751175</v>
       </c>
       <c r="Z24">
-        <v>2.8476924882199714e-07</v>
+        <v>8.1126528869566482e-07</v>
       </c>
       <c r="AA24">
-        <v>1.4137294312337214e-06</v>
+        <v>2.2510033933875583e-06</v>
       </c>
       <c r="AB24">
-        <v>0.00017142630016405864</v>
+        <v>0.00032294089620218123</v>
       </c>
       <c r="AC24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="AD24">
-        <v>8.656303045225189e-09</v>
+        <v>1.6428185828794705e-09</v>
       </c>
       <c r="AE24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="AF24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="AG24">
-        <v>2.5893441534471983e-11</v>
+        <v>9.0507205887399647e-11</v>
       </c>
       <c r="AH24">
-        <v>2.2201832971701853e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="AI24">
         <v>16</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.5600818030646694e-07</v>
+        <v>8.8792283746235986e-08</v>
       </c>
       <c r="C25">
-        <v>1.0293235916676974e-09</v>
+        <v>3.229327513634974e-09</v>
       </c>
       <c r="D25">
-        <v>6.9591210183599746e-13</v>
+        <v>5.7432110605379069e-12</v>
       </c>
       <c r="E25">
-        <v>3.5165248991630203e-11</v>
+        <v>1.2491090167794617e-11</v>
       </c>
       <c r="F25">
-        <v>0.00047518790020482042</v>
+        <v>0.00026412794152978666</v>
       </c>
       <c r="G25">
-        <v>1.0907447541164138e-13</v>
+        <v>9.718532911692359e-13</v>
       </c>
       <c r="H25">
-        <v>1.5146697307147486e-07</v>
+        <v>3.5842329337827585e-07</v>
       </c>
       <c r="I25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="J25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="K25">
-        <v>1.9176222922576366e-13</v>
+        <v>3.7422920115986439e-13</v>
       </c>
       <c r="L25">
-        <v>6.8303650750594934e-07</v>
+        <v>3.1746086358016182e-06</v>
       </c>
       <c r="M25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="N25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="O25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="P25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="Q25">
-        <v>0.0074284522642717211</v>
+        <v>0.0050165825527161943</v>
       </c>
       <c r="R25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="S25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="T25">
-        <v>5.7731410898732579e-12</v>
+        <v>3.2023747028382371e-11</v>
       </c>
       <c r="U25">
-        <v>1.6702142312827217e-10</v>
+        <v>7.593387597283133e-10</v>
       </c>
       <c r="V25">
-        <v>5.3354387696618163e-14</v>
+        <v>4.1488988198753536e-13</v>
       </c>
       <c r="W25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="X25">
-        <v>0.00090609049596394496</v>
+        <v>0.00069219409466141513</v>
       </c>
       <c r="Y25">
-        <v>6.0119248201080401e-05</v>
+        <v>8.1235019033897184e-05</v>
       </c>
       <c r="Z25">
-        <v>1.0185868952274426e-09</v>
+        <v>3.7810890991550362e-09</v>
       </c>
       <c r="AA25">
-        <v>2.8570792448743707e-13</v>
+        <v>3.295276965638412e-12</v>
       </c>
       <c r="AB25">
-        <v>0.99112915719212069</v>
+        <v>0.99394222994981418</v>
       </c>
       <c r="AC25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="AD25">
-        <v>1.3005997467608869e-10</v>
+        <v>7.9265126469221519e-10</v>
       </c>
       <c r="AE25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="AF25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="AG25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="AH25">
-        <v>2.220230717598579e-14</v>
+        <v>2.2202056323928141e-14</v>
       </c>
       <c r="AI25">
         <v>27</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7.429845000446539e-07</v>
+        <v>6.0191700788638067e-07</v>
       </c>
       <c r="C26">
-        <v>2.3447706640631766e-11</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="D26">
-        <v>2.3620595693835113e-09</v>
+        <v>3.0524201897003836e-11</v>
       </c>
       <c r="E26">
-        <v>1.9928246652640547e-08</v>
+        <v>8.4044861126780916e-06</v>
       </c>
       <c r="F26">
-        <v>6.6117909585673535e-10</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="G26">
-        <v>8.7301499710855328e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="H26">
-        <v>3.5402484912130312e-09</v>
+        <v>1.2025330172299195e-10</v>
       </c>
       <c r="I26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="J26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="K26">
-        <v>7.9993288323295433e-12</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="L26">
-        <v>4.3879768673277828e-08</v>
+        <v>1.8957871487197516e-11</v>
       </c>
       <c r="M26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="N26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="O26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="P26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="Q26">
-        <v>3.1124967929678175e-07</v>
+        <v>3.7585144356719636e-08</v>
       </c>
       <c r="R26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="S26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="T26">
-        <v>1.1302016600764247e-11</v>
+        <v>7.6922034268439914e-13</v>
       </c>
       <c r="U26">
-        <v>0.0010203912894754463</v>
+        <v>0.00076656886475158612</v>
       </c>
       <c r="V26">
-        <v>7.4050479211609874e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="W26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="X26">
-        <v>4.8172656900153805e-05</v>
+        <v>2.2360396543485368e-05</v>
       </c>
       <c r="Y26">
-        <v>2.0341676746623502e-07</v>
+        <v>3.2691727700986293e-10</v>
       </c>
       <c r="Z26">
-        <v>9.4855572392054932e-09</v>
+        <v>7.1601640069503514e-09</v>
       </c>
       <c r="AA26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="AB26">
-        <v>0.99893008196906496</v>
+        <v>0.99920200812273308</v>
       </c>
       <c r="AC26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="AD26">
-        <v>1.6526514063717064e-08</v>
+        <v>1.0969555693309173e-08</v>
       </c>
       <c r="AE26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="AF26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="AG26">
-        <v>6.817518941188236e-12</v>
+        <v>1.4354398485319296e-13</v>
       </c>
       <c r="AH26">
-        <v>2.2203752291594863e-14</v>
+        <v>2.2203926133344926e-14</v>
       </c>
       <c r="AI26">
         <v>27</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.00021335356212371604</v>
+        <v>0.00073623816430992196</v>
       </c>
       <c r="C27">
-        <v>3.865059213322316e-11</v>
+        <v>3.0082684936041729e-11</v>
       </c>
       <c r="D27">
-        <v>3.0360737922163524e-11</v>
+        <v>2.9343155059748445e-12</v>
       </c>
       <c r="E27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="F27">
-        <v>0.00069867597551292657</v>
+        <v>4.0533293216733364e-05</v>
       </c>
       <c r="G27">
-        <v>1.5646507348496393e-06</v>
+        <v>3.9021087282121616e-07</v>
       </c>
       <c r="H27">
-        <v>1.6462430279446625e-06</v>
+        <v>1.0275615779614031e-06</v>
       </c>
       <c r="I27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="J27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="K27">
-        <v>3.4341360965735753e-08</v>
+        <v>1.4653738389487021e-09</v>
       </c>
       <c r="L27">
-        <v>4.3280780654540454e-11</v>
+        <v>2.3489072553956457e-11</v>
       </c>
       <c r="M27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="N27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="O27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="P27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="Q27">
-        <v>0.99562108284325346</v>
+        <v>0.99488473986508619</v>
       </c>
       <c r="R27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="S27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="T27">
-        <v>4.3663897791064032e-07</v>
+        <v>3.0484886240616583e-07</v>
       </c>
       <c r="U27">
-        <v>8.2488521029053323e-13</v>
+        <v>1.4943111950499155e-12</v>
       </c>
       <c r="V27">
-        <v>1.682455376487342e-06</v>
+        <v>2.1600107291161204e-07</v>
       </c>
       <c r="W27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="X27">
-        <v>1.9879789951437533e-06</v>
+        <v>1.1909876170892588e-06</v>
       </c>
       <c r="Y27">
-        <v>0.0024888774688473052</v>
+        <v>0.0036706077247266908</v>
       </c>
       <c r="Z27">
-        <v>4.9679377592308637e-06</v>
+        <v>2.3468358945547952e-06</v>
       </c>
       <c r="AA27">
-        <v>6.2724793427902778e-06</v>
+        <v>3.489250160751266e-06</v>
       </c>
       <c r="AB27">
-        <v>0.00095941191770496646</v>
+        <v>0.00065891228897699077</v>
       </c>
       <c r="AC27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="AD27">
-        <v>4.1723946752644304e-09</v>
+        <v>9.1589350820996373e-10</v>
       </c>
       <c r="AE27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="AF27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="AG27">
-        <v>1.221159844479705e-09</v>
+        <v>5.2804632355162228e-10</v>
       </c>
       <c r="AH27">
-        <v>2.2201886132025078e-14</v>
+        <v>2.2202017817764175e-14</v>
       </c>
       <c r="AI27">
         <v>16</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>8.764415658849697e-06</v>
+        <v>1.1794742077506663e-05</v>
       </c>
       <c r="C28">
-        <v>1.437994768053187e-11</v>
+        <v>2.1564683310478404e-11</v>
       </c>
       <c r="D28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="E28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="F28">
-        <v>1.4031954062088656e-07</v>
+        <v>1.0270159937845982e-07</v>
       </c>
       <c r="G28">
-        <v>3.0950784943404725e-10</v>
+        <v>3.5440864924909304e-10</v>
       </c>
       <c r="H28">
-        <v>9.1815014919896683e-08</v>
+        <v>1.0657606349746064e-07</v>
       </c>
       <c r="I28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="J28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="K28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="L28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="M28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="N28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="O28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="P28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="Q28">
-        <v>0.96369111958328957</v>
+        <v>0.98240078914966034</v>
       </c>
       <c r="R28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="S28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="T28">
-        <v>7.9190613282555874e-09</v>
+        <v>6.3517119519529424e-09</v>
       </c>
       <c r="U28">
-        <v>1.5914625725892202e-11</v>
+        <v>1.2085891828109163e-11</v>
       </c>
       <c r="V28">
-        <v>1.5165679379720776e-08</v>
+        <v>6.2725550375938192e-09</v>
       </c>
       <c r="W28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="X28">
-        <v>5.6314545077514197e-08</v>
+        <v>1.3912490605714354e-07</v>
       </c>
       <c r="Y28">
-        <v>0.0034047042716989079</v>
+        <v>0.0039557725194679467</v>
       </c>
       <c r="Z28">
-        <v>8.3015311486294303e-09</v>
+        <v>8.1906886440716242e-09</v>
       </c>
       <c r="AA28">
-        <v>4.4762204298439513e-06</v>
+        <v>5.6901320326180724e-06</v>
       </c>
       <c r="AB28">
-        <v>0.03289061046686375</v>
+        <v>0.013625579352045749</v>
       </c>
       <c r="AC28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="AD28">
-        <v>7.5199034025475671e-12</v>
+        <v>9.330801672198441e-12</v>
       </c>
       <c r="AE28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="AF28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="AG28">
-        <v>4.858986591965592e-09</v>
+        <v>4.4894238722042656e-09</v>
       </c>
       <c r="AH28">
-        <v>2.2201788684884178e-14</v>
+        <v>2.2202975672100751e-14</v>
       </c>
       <c r="AI28">
         <v>16</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.030301181211933269</v>
+        <v>0.030302943861908387</v>
       </c>
       <c r="C29">
-        <v>0.030301181211682349</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="D29">
-        <v>0.030301181211682349</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="E29">
-        <v>0.030301181211682349</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="F29">
-        <v>0.030301181211682349</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="G29">
-        <v>0.030301181211716797</v>
+        <v>0.030302943861913661</v>
       </c>
       <c r="H29">
-        <v>0.030301181211682352</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="I29">
-        <v>0.030301181211682352</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="J29">
-        <v>0.030301181211682352</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="K29">
-        <v>0.030301181211682356</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="L29">
-        <v>0.030301181211682359</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="M29">
-        <v>0.030301181316435895</v>
+        <v>0.030302944029230536</v>
       </c>
       <c r="N29">
-        <v>0.030301181211682359</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="O29">
-        <v>0.030301181211682356</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="P29">
-        <v>0.030301181211682356</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="Q29">
-        <v>0.030361834674403242</v>
+        <v>0.030305747273698926</v>
       </c>
       <c r="R29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="S29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="T29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="U29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="V29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="W29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="X29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896397</v>
       </c>
       <c r="Y29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="Z29">
-        <v>0.030301547658394021</v>
+        <v>0.030302992840143168</v>
       </c>
       <c r="AA29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="AB29">
-        <v>0.030301181211692608</v>
+        <v>0.030302943861903273</v>
       </c>
       <c r="AC29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="AD29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="AE29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="AF29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="AG29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="AH29">
-        <v>0.030301181211682383</v>
+        <v>0.030302943861896393</v>
       </c>
       <c r="AI29">
         <v>16</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.043486957847801599</v>
+        <v>0.011267217525319648</v>
       </c>
       <c r="C30">
-        <v>4.7935530039318218e-06</v>
+        <v>5.6982238328892772e-07</v>
       </c>
       <c r="D30">
-        <v>2.5141083513400577e-05</v>
+        <v>8.6557295286826141e-06</v>
       </c>
       <c r="E30">
-        <v>1.6802064641544177e-06</v>
+        <v>1.0947257647624324e-07</v>
       </c>
       <c r="F30">
-        <v>0.13867862647548662</v>
+        <v>0.18014423823145681</v>
       </c>
       <c r="G30">
-        <v>9.5643907915402143e-06</v>
+        <v>2.2809441076197787e-06</v>
       </c>
       <c r="H30">
-        <v>0.1438491366797626</v>
+        <v>0.16194719610463773</v>
       </c>
       <c r="I30">
-        <v>1.0624944352684639e-10</v>
+        <v>1.8661471838743201e-11</v>
       </c>
       <c r="J30">
-        <v>1.0624944352684639e-10</v>
+        <v>1.8661471838743191e-11</v>
       </c>
       <c r="K30">
-        <v>7.1036055252329285e-05</v>
+        <v>1.0454047571576932e-05</v>
       </c>
       <c r="L30">
-        <v>0.00010282019436570735</v>
+        <v>3.0084010843013785e-05</v>
       </c>
       <c r="M30">
-        <v>1.0624944352684646e-10</v>
+        <v>1.866147183874314e-11</v>
       </c>
       <c r="N30">
-        <v>1.0624944352684619e-10</v>
+        <v>1.866147183874313e-11</v>
       </c>
       <c r="O30">
-        <v>1.0624944352684619e-10</v>
+        <v>1.866147183874313e-11</v>
       </c>
       <c r="P30">
-        <v>1.062494435268463e-10</v>
+        <v>1.866147183874314e-11</v>
       </c>
       <c r="Q30">
-        <v>0.17103656426256356</v>
+        <v>0.21194190914942673</v>
       </c>
       <c r="R30">
-        <v>1.062494435268462e-10</v>
+        <v>1.866147183874314e-11</v>
       </c>
       <c r="S30">
-        <v>1.0624944352684635e-10</v>
+        <v>1.8661471838743195e-11</v>
       </c>
       <c r="T30">
-        <v>0.00096036190143346971</v>
+        <v>0.00018375996138488105</v>
       </c>
       <c r="U30">
-        <v>1.0624944352683999e-10</v>
+        <v>1.8661471838743201e-11</v>
       </c>
       <c r="V30">
-        <v>0.14530750777015908</v>
+        <v>0.17168738923426066</v>
       </c>
       <c r="W30">
-        <v>1.0624944352683998e-10</v>
+        <v>1.8661471838743195e-11</v>
       </c>
       <c r="X30">
-        <v>4.6711494938570997e-05</v>
+        <v>6.0740976444455642e-06</v>
       </c>
       <c r="Y30">
-        <v>0.13473861157096628</v>
+        <v>0.14192289488797979</v>
       </c>
       <c r="Z30">
-        <v>4.8268374980497349e-05</v>
+        <v>1.1976852403635784e-05</v>
       </c>
       <c r="AA30">
-        <v>0.0097092349105295638</v>
+        <v>0.0038557506603914445</v>
       </c>
       <c r="AB30">
-        <v>0.098828078107196043</v>
+        <v>0.048159567636818362</v>
       </c>
       <c r="AC30">
-        <v>1.0624944352684019e-10</v>
+        <v>1.8661471838743185e-11</v>
       </c>
       <c r="AD30">
-        <v>0.11309490352704971</v>
+        <v>0.068819871351342876</v>
       </c>
       <c r="AE30">
-        <v>1.0624944352684002e-10</v>
+        <v>1.8661471838743185e-11</v>
       </c>
       <c r="AF30">
-        <v>1.0624944352684019e-10</v>
+        <v>1.8661471838743188e-11</v>
       </c>
       <c r="AG30">
-        <v>1.0624944352684019e-10</v>
+        <v>1.8661471838743188e-11</v>
       </c>
       <c r="AH30">
-        <v>1.0624944352684002e-10</v>
+        <v>1.8661471838743188e-11</v>
       </c>
       <c r="AI30">
         <v>16</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>9.4662597024987254e-06</v>
+        <v>1.1718324971588364e-05</v>
       </c>
       <c r="C31">
-        <v>1.487080266160059e-08</v>
+        <v>1.2147325872824545e-08</v>
       </c>
       <c r="D31">
-        <v>4.794956880662392e-12</v>
+        <v>3.2051448447119912e-12</v>
       </c>
       <c r="E31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="F31">
-        <v>9.1787702180028567e-09</v>
+        <v>1.9730437264655718e-08</v>
       </c>
       <c r="G31">
-        <v>6.206613307773474e-07</v>
+        <v>7.6056362332236638e-07</v>
       </c>
       <c r="H31">
-        <v>0.0020698841767738891</v>
+        <v>0.0026719821298634926</v>
       </c>
       <c r="I31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="J31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="K31">
-        <v>4.6504608227993084e-05</v>
+        <v>0.00019394101590149368</v>
       </c>
       <c r="L31">
-        <v>3.5296226196881572e-08</v>
+        <v>3.8136182080192537e-08</v>
       </c>
       <c r="M31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="N31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="O31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="P31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="Q31">
-        <v>0.96418295107572871</v>
+        <v>0.95511734268645665</v>
       </c>
       <c r="R31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="S31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="T31">
-        <v>8.6552877897591834e-07</v>
+        <v>1.5264958690828596e-06</v>
       </c>
       <c r="U31">
-        <v>5.1577175956797195e-12</v>
+        <v>5.3428157023453095e-12</v>
       </c>
       <c r="V31">
-        <v>7.6963522186793653e-07</v>
+        <v>1.1079280397163813e-06</v>
       </c>
       <c r="W31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="X31">
-        <v>3.3809459813292186e-05</v>
+        <v>1.3353819587539428e-05</v>
       </c>
       <c r="Y31">
-        <v>0.0005536366968960201</v>
+        <v>0.00040885126334323047</v>
       </c>
       <c r="Z31">
-        <v>1.0944361882680858e-06</v>
+        <v>1.742837411474858e-06</v>
       </c>
       <c r="AA31">
-        <v>6.4903522077352797e-05</v>
+        <v>9.910042615301836e-05</v>
       </c>
       <c r="AB31">
-        <v>0.011823681428651431</v>
+        <v>0.022963891770108651</v>
       </c>
       <c r="AC31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="AD31">
-        <v>0.02121175315225781</v>
+        <v>0.018514610714791067</v>
       </c>
       <c r="AE31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="AF31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="AG31">
-        <v>2.2886606092263867e-12</v>
+        <v>1.0758498364111977e-12</v>
       </c>
       <c r="AH31">
-        <v>2.2203575840806553e-14</v>
+        <v>2.2203692561553694e-14</v>
       </c>
       <c r="AI31">
         <v>16</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2.8578505394479889e-07</v>
+        <v>6.1302684514201907e-08</v>
       </c>
       <c r="C32">
-        <v>4.5352004559102688e-07</v>
+        <v>5.3427001220477675e-07</v>
       </c>
       <c r="D32">
-        <v>0.97737783839736581</v>
+        <v>0.98065051850418739</v>
       </c>
       <c r="E32">
-        <v>2.5935088280075763e-09</v>
+        <v>3.6674787809457583e-10</v>
       </c>
       <c r="F32">
-        <v>0.0071902216054064915</v>
+        <v>0.0051909706569706181</v>
       </c>
       <c r="G32">
-        <v>5.2535381311577846e-08</v>
+        <v>1.0224251896221288e-07</v>
       </c>
       <c r="H32">
-        <v>0.00011181063258970275</v>
+        <v>1.2897926917648639e-05</v>
       </c>
       <c r="I32">
-        <v>2.2202791356684233e-14</v>
+        <v>2.2203631586948399e-14</v>
       </c>
       <c r="J32">
-        <v>2.2202791356684233e-14</v>
+        <v>2.2203631586948399e-14</v>
       </c>
       <c r="K32">
-        <v>0.00058773872138303184</v>
+        <v>0.0012299168123636492</v>
       </c>
       <c r="L32">
-        <v>0.00088622155390790508</v>
+        <v>0.0019464571611642644</v>
       </c>
       <c r="M32">
-        <v>2.6729891989421187e-10</v>
+        <v>5.0513064931960744e-10</v>
       </c>
       <c r="N32">
-        <v>2.2202791356684233e-14</v>
+        <v>2.2203631586948399e-14</v>
       </c>
       <c r="O32">
-        <v>2.2202791356684233e-14</v>
+        <v>2.2203631586948399e-14</v>
       </c>
       <c r="P32">
-        <v>2.2202791356684233e-14</v>
+        <v>2.2203631586948399e-14</v>
       </c>
       <c r="Q32">
-        <v>0.00096665285121362132</v>
+        <v>0.00097329591267485604</v>
       </c>
       <c r="R32">
-        <v>2.2202791356684233e-14</v>
+        <v>2.2203631586948399e-14</v>
       </c>
       <c r="S32">
-        <v>2.2202791356684233e-14</v>
+        <v>2.2203631586948399e-14</v>
       </c>
       <c r="T32">
-        <v>5.0011994833335468e-09</v>
+        <v>4.0863137182503928e-09</v>
       </c>
       <c r="U32">
-        <v>6.3462232598630255e-07</v>
+        <v>2.7702972010069693e-06</v>
       </c>
       <c r="V32">
-        <v>1.1054359441269765e-09</v>
+        <v>4.3916413999303726e-10</v>
       </c>
       <c r="W32">
-        <v>2.2202791356684233e-14</v>
+        <v>2.2203631586948399e-14</v>
       </c>
       <c r="X32">
-        <v>0.00092823218426573253</v>
+        <v>0.00056836094324982781</v>
       </c>
       <c r="Y32">
-        <v>0.0024655368223528117</v>
+        <v>0.0013861878847788102</v>
       </c>
       <c r="Z32">
-        <v>1.6105492011745459e-05</v>
+        <v>4.9213491484183637e-05</v>
       </c>
       <c r="AA32">
-        <v>2.5289045135758712e-05</v>
+        <v>5.5437385442245319e-05</v>
       </c>
       <c r="AB32">
-        <v>0.0094429172569357317</v>
+        <v>0.0079332698066789456</v>
       </c>
       <c r="AC32">
-        <v>2.2202791356684233e-14</v>
+        <v>2.2203631586948399e-14</v>
       </c>
       <c r="AD32">
-        <v>6.83904992579578e-12</v>
+        <v>3.9686688444630453e-12</v>
       </c>
       <c r="AE32">
-        <v>2.2202791356684233e-14</v>
+        <v>2.2203631586948399e-14</v>
       </c>
       <c r="AF32">
-        <v>2.2202791356684233e-14</v>
+        <v>2.2203631586948399e-14</v>
       </c>
       <c r="AG32">
-        <v>7.5917425798233125e-14</v>
+        <v>7.9449786305432382e-14</v>
       </c>
       <c r="AH32">
-        <v>2.2202791356684233e-14</v>
+        <v>2.2203631586948399e-14</v>
       </c>
       <c r="AI32">
         <v>3</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2.5466744550764002e-05</v>
+        <v>2.760681535536058e-05</v>
       </c>
       <c r="C33">
-        <v>4.5912449237153701e-12</v>
+        <v>3.4551442191098294e-11</v>
       </c>
       <c r="D33">
-        <v>4.2093496573180887e-08</v>
+        <v>7.7982604652578762e-07</v>
       </c>
       <c r="E33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="F33">
-        <v>3.2213129323688239e-10</v>
+        <v>1.3325298812422598e-08</v>
       </c>
       <c r="G33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="H33">
-        <v>1.0191728696632817e-09</v>
+        <v>4.428575406733075e-10</v>
       </c>
       <c r="I33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="J33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="K33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="L33">
-        <v>3.4588454169626794e-09</v>
+        <v>2.8049735237767793e-09</v>
       </c>
       <c r="M33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="N33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="O33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="P33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="Q33">
-        <v>4.6531536686801902e-06</v>
+        <v>7.2005904834832251e-06</v>
       </c>
       <c r="R33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="S33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="T33">
-        <v>1.0485808145055568e-13</v>
+        <v>9.8700444604986732e-13</v>
       </c>
       <c r="U33">
-        <v>4.6023472702639225e-10</v>
+        <v>2.970483731096574e-09</v>
       </c>
       <c r="V33">
-        <v>5.5119810679238795e-09</v>
+        <v>6.1716865888909726e-09</v>
       </c>
       <c r="W33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="X33">
-        <v>1.0375461152961576e-05</v>
+        <v>2.2884037527406885e-05</v>
       </c>
       <c r="Y33">
-        <v>0.00036771879778036949</v>
+        <v>0.00031808031858974556</v>
       </c>
       <c r="Z33">
-        <v>0.00042890894958597971</v>
+        <v>0.00058807966032039551</v>
       </c>
       <c r="AA33">
-        <v>0.99855303046088228</v>
+        <v>0.99557607951439619</v>
       </c>
       <c r="AB33">
-        <v>1.9415073375633961e-05</v>
+        <v>6.4263993830813363e-06</v>
       </c>
       <c r="AC33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="AD33">
-        <v>0.00059037848806773978</v>
+        <v>0.003452837086681777</v>
       </c>
       <c r="AE33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="AF33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="AG33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="AH33">
-        <v>2.2203528642463046e-14</v>
+        <v>2.2201859601239511e-14</v>
       </c>
       <c r="AI33">
         <v>26</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.021217562812969347</v>
+        <v>0.019600228615675151</v>
       </c>
       <c r="C34">
-        <v>8.2043693005964012e-11</v>
+        <v>5.8979926467435495e-11</v>
       </c>
       <c r="D34">
-        <v>1.9692161649016629e-08</v>
+        <v>2.5285268277032648e-08</v>
       </c>
       <c r="E34">
-        <v>1.5224354918980461e-13</v>
+        <v>6.5656479409987521e-13</v>
       </c>
       <c r="F34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="G34">
-        <v>2.2429216758342402e-08</v>
+        <v>2.8245899802959104e-08</v>
       </c>
       <c r="H34">
-        <v>7.0783753072265381e-08</v>
+        <v>2.8001011020692528e-07</v>
       </c>
       <c r="I34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="J34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="K34">
-        <v>4.5308568368366213e-11</v>
+        <v>5.6381063654494837e-11</v>
       </c>
       <c r="L34">
-        <v>2.0171240580716876e-07</v>
+        <v>2.3645088034916331e-07</v>
       </c>
       <c r="M34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="N34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="O34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="P34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="Q34">
-        <v>0.97690686124777648</v>
+        <v>0.97894267297873538</v>
       </c>
       <c r="R34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="S34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="T34">
-        <v>3.8212904792466865e-06</v>
+        <v>4.8796334430121127e-06</v>
       </c>
       <c r="U34">
-        <v>5.1174136480827248e-08</v>
+        <v>1.1439745602179693e-07</v>
       </c>
       <c r="V34">
-        <v>4.1981982791073124e-06</v>
+        <v>1.2418785176052513e-05</v>
       </c>
       <c r="W34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="X34">
-        <v>0.00020074640774307768</v>
+        <v>0.00017628733894528518</v>
       </c>
       <c r="Y34">
-        <v>0.0016430366319731531</v>
+        <v>0.0012329572239666085</v>
       </c>
       <c r="Z34">
-        <v>1.969079689107794e-07</v>
+        <v>2.485170377733593e-07</v>
       </c>
       <c r="AA34">
-        <v>3.0684762533167968e-06</v>
+        <v>5.907050440768864e-06</v>
       </c>
       <c r="AB34">
-        <v>2.0136395246825986e-05</v>
+        <v>2.3690840097130304e-05</v>
       </c>
       <c r="AC34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="AD34">
-        <v>4.4456632840760829e-10</v>
+        <v>6.2339111871184495e-10</v>
       </c>
       <c r="AE34">
-        <v>2.2202266980620239e-14</v>
+        <v>4.608306888573382e-14</v>
       </c>
       <c r="AF34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="AG34">
-        <v>5.2672550853216581e-09</v>
+        <v>2.3887124811309062e-08</v>
       </c>
       <c r="AH34">
-        <v>2.2202266980620239e-14</v>
+        <v>2.2202195047161799e-14</v>
       </c>
       <c r="AI34">
         <v>16</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2.6461901942434854e-11</v>
+        <v>6.3290690170515363e-12</v>
       </c>
       <c r="C35">
-        <v>7.4117048155625709e-10</v>
+        <v>2.2061935231901251e-12</v>
       </c>
       <c r="D35">
-        <v>1.3837124528143345e-13</v>
+        <v>4.0503282267964084e-14</v>
       </c>
       <c r="E35">
-        <v>1.3837124528147516e-13</v>
+        <v>4.0503282267964116e-14</v>
       </c>
       <c r="F35">
-        <v>1.383712452814354e-13</v>
+        <v>4.0503282267964116e-14</v>
       </c>
       <c r="G35">
-        <v>0.0074064773069197152</v>
+        <v>0.011002323175792288</v>
       </c>
       <c r="H35">
-        <v>1.383712452814354e-13</v>
+        <v>4.0503282267964128e-14</v>
       </c>
       <c r="I35">
-        <v>1.383712452814354e-13</v>
+        <v>4.0503282267964128e-14</v>
       </c>
       <c r="J35">
-        <v>1.383712452814354e-13</v>
+        <v>4.0503282267964122e-14</v>
       </c>
       <c r="K35">
-        <v>2.6056272508267052e-10</v>
+        <v>5.4555045469183821e-10</v>
       </c>
       <c r="L35">
-        <v>9.0815480396446016e-05</v>
+        <v>8.3790292320892022e-07</v>
       </c>
       <c r="M35">
-        <v>6.606425157258315e-12</v>
+        <v>4.0503282267964122e-14</v>
       </c>
       <c r="N35">
-        <v>1.3837124528143547e-13</v>
+        <v>4.0503282267964103e-14</v>
       </c>
       <c r="O35">
-        <v>1.3837124528143547e-13</v>
+        <v>4.0503282267964103e-14</v>
       </c>
       <c r="P35">
-        <v>1.3837124528143547e-13</v>
+        <v>4.0503282267964103e-14</v>
       </c>
       <c r="Q35">
-        <v>0.73402763142831406</v>
+        <v>0.53035802959928835</v>
       </c>
       <c r="R35">
-        <v>1.3837124528143547e-13</v>
+        <v>4.0503282267964103e-14</v>
       </c>
       <c r="S35">
-        <v>1.3837124528143552e-13</v>
+        <v>4.0503282267964122e-14</v>
       </c>
       <c r="T35">
-        <v>1.3837124528143552e-13</v>
+        <v>4.0503282267964122e-14</v>
       </c>
       <c r="U35">
-        <v>1.3837124528144406e-13</v>
+        <v>4.0503282267964292e-14</v>
       </c>
       <c r="V35">
-        <v>1.9686492143111774e-12</v>
+        <v>4.0503282267964122e-14</v>
       </c>
       <c r="W35">
-        <v>1.3837124528143552e-13</v>
+        <v>4.0503282267964103e-14</v>
       </c>
       <c r="X35">
-        <v>4.937818568309937e-06</v>
+        <v>2.8383991432289678e-07</v>
       </c>
       <c r="Y35">
-        <v>1.6565988241769759e-10</v>
+        <v>4.0503282267968054e-14</v>
       </c>
       <c r="Z35">
-        <v>0.25845683317860979</v>
+        <v>0.45863847195898827</v>
       </c>
       <c r="AA35">
-        <v>1.3837124528143552e-13</v>
+        <v>4.0503282267964091e-14</v>
       </c>
       <c r="AB35">
-        <v>1.3303581856293249e-05</v>
+        <v>5.2968036643109818e-08</v>
       </c>
       <c r="AC35">
-        <v>1.383712452814354e-13</v>
+        <v>4.0503282267964091e-14</v>
       </c>
       <c r="AD35">
-        <v>1.3837124528143545e-13</v>
+        <v>4.0503282267964116e-14</v>
       </c>
       <c r="AE35">
-        <v>1.3837124528143545e-13</v>
+        <v>4.0503282267964116e-14</v>
       </c>
       <c r="AF35">
-        <v>1.3837124528143545e-13</v>
+        <v>4.0503282267964116e-14</v>
       </c>
       <c r="AG35">
-        <v>1.3837124528143545e-13</v>
+        <v>4.0503282267964116e-14</v>
       </c>
       <c r="AH35">
-        <v>1.3837124528143545e-13</v>
+        <v>4.0503282267964091e-14</v>
       </c>
       <c r="AI35">
         <v>16</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.012534759065105917</v>
+        <v>0.0067674679097257853</v>
       </c>
       <c r="C36">
-        <v>5.9825959627020688e-10</v>
+        <v>4.4354524074471797e-10</v>
       </c>
       <c r="D36">
-        <v>1.5229634002219796e-12</v>
+        <v>1.0054948581925847e-11</v>
       </c>
       <c r="E36">
-        <v>1.7616914318750681e-11</v>
+        <v>5.4126773732786662e-12</v>
       </c>
       <c r="F36">
-        <v>6.2942853650890811e-11</v>
+        <v>2.0649551805145443e-09</v>
       </c>
       <c r="G36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="H36">
-        <v>1.2652110266150883e-13</v>
+        <v>1.0922402874595937e-13</v>
       </c>
       <c r="I36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="J36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="K36">
-        <v>2.2205402892475786e-14</v>
+        <v>7.1203781657818913e-14</v>
       </c>
       <c r="L36">
-        <v>7.5886744382130254e-13</v>
+        <v>2.5261061314379812e-13</v>
       </c>
       <c r="M36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="N36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="O36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="P36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="Q36">
-        <v>0.0028190238391227955</v>
+        <v>0.0044085698455340388</v>
       </c>
       <c r="R36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="S36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="T36">
-        <v>2.1851917991604484e-08</v>
+        <v>4.5325669724235215e-08</v>
       </c>
       <c r="U36">
-        <v>0.90049962108562531</v>
+        <v>0.95507788981311248</v>
       </c>
       <c r="V36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="W36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="X36">
-        <v>0.0001565388415266771</v>
+        <v>4.9564209645323727e-05</v>
       </c>
       <c r="Y36">
-        <v>0.0046152282550613591</v>
+        <v>0.0024977579925553233</v>
       </c>
       <c r="Z36">
-        <v>1.0696278587374387e-06</v>
+        <v>2.0719163093687327e-06</v>
       </c>
       <c r="AA36">
-        <v>0.00012613558212934815</v>
+        <v>0.00024805533037851833</v>
       </c>
       <c r="AB36">
-        <v>0.079247601156925071</v>
+        <v>0.030948575059532166</v>
       </c>
       <c r="AC36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="AD36">
-        <v>1.2079700077883506e-11</v>
+        <v>6.8034977120964586e-11</v>
       </c>
       <c r="AE36">
-        <v>1.2993545449473905e-13</v>
+        <v>4.0979213100707046e-12</v>
       </c>
       <c r="AF36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="AG36">
-        <v>9.5640110168419352e-13</v>
+        <v>6.9237603426063335e-13</v>
       </c>
       <c r="AH36">
-        <v>2.2205402892475786e-14</v>
+        <v>2.2204420277883936e-14</v>
       </c>
       <c r="AI36">
         <v>20</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>6.3058358360505592e-06</v>
+        <v>2.2170723294246033e-05</v>
       </c>
       <c r="C37">
-        <v>0.0056979475290925416</v>
+        <v>0.012511562447136203</v>
       </c>
       <c r="D37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="E37">
-        <v>4.3456174712695917e-14</v>
+        <v>3.3361998533745366e-13</v>
       </c>
       <c r="F37">
-        <v>5.6973848494248956e-10</v>
+        <v>5.2470702802197732e-10</v>
       </c>
       <c r="G37">
-        <v>1.7557644382438625e-11</v>
+        <v>2.7354632505391531e-11</v>
       </c>
       <c r="H37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="I37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="J37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="K37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="L37">
-        <v>0.022966183387541361</v>
+        <v>0.0035184176116401697</v>
       </c>
       <c r="M37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="N37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="O37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="P37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="Q37">
-        <v>0.97132934062085907</v>
+        <v>0.98394759263640919</v>
       </c>
       <c r="R37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="S37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="T37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="U37">
-        <v>9.1261309938210695e-14</v>
+        <v>4.4515217590673069e-14</v>
       </c>
       <c r="V37">
-        <v>2.1424048116064579e-13</v>
+        <v>4.2008405606475171e-14</v>
       </c>
       <c r="W37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="X37">
-        <v>1.0054908137729645e-07</v>
+        <v>9.0459662086954889e-08</v>
       </c>
       <c r="Y37">
-        <v>1.204139088474753e-07</v>
+        <v>1.6473545503621265e-07</v>
       </c>
       <c r="Z37">
-        <v>1.6070325957122509e-12</v>
+        <v>2.9509541886323651e-13</v>
       </c>
       <c r="AA37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="AB37">
-        <v>5.0415565893022171e-11</v>
+        <v>1.2816192223830053e-10</v>
       </c>
       <c r="AC37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="AD37">
-        <v>1.023591097576844e-09</v>
+        <v>7.0504263463118573e-10</v>
       </c>
       <c r="AE37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="AF37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="AG37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="AH37">
-        <v>2.2203056885116291e-14</v>
+        <v>2.2202889545267148e-14</v>
       </c>
       <c r="AI37">
         <v>16</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>5.7826831052608641e-07</v>
+        <v>5.3584192236480136e-07</v>
       </c>
       <c r="C38">
-        <v>1.1938026847423483e-08</v>
+        <v>6.5410923505630338e-09</v>
       </c>
       <c r="D38">
-        <v>2.1076072956211053e-07</v>
+        <v>2.7427383445447835e-07</v>
       </c>
       <c r="E38">
-        <v>5.2256983855720637e-11</v>
+        <v>7.6046570839894607e-11</v>
       </c>
       <c r="F38">
-        <v>2.4780607776443249e-12</v>
+        <v>9.6133493790414594e-14</v>
       </c>
       <c r="G38">
-        <v>1.8037300037865575e-05</v>
+        <v>1.6686573923677194e-05</v>
       </c>
       <c r="H38">
-        <v>2.0289574693093972e-13</v>
+        <v>1.4345979573372838e-13</v>
       </c>
       <c r="I38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="J38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="K38">
-        <v>2.8670451667109614e-11</v>
+        <v>8.0031818174105731e-12</v>
       </c>
       <c r="L38">
-        <v>3.5842534274464989e-09</v>
+        <v>1.0913431654131325e-09</v>
       </c>
       <c r="M38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="N38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="O38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="P38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="Q38">
-        <v>0.00020819294277401373</v>
+        <v>0.00017428840192812537</v>
       </c>
       <c r="R38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="S38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="T38">
-        <v>8.8793764099495633e-06</v>
+        <v>1.1547808119158118e-05</v>
       </c>
       <c r="U38">
-        <v>1.7559690335814716e-07</v>
+        <v>1.5685657251870561e-07</v>
       </c>
       <c r="V38">
-        <v>0.99892698088341547</v>
+        <v>0.99902230022029004</v>
       </c>
       <c r="W38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="X38">
-        <v>0.00023986934918239565</v>
+        <v>0.00038604490615837305</v>
       </c>
       <c r="Y38">
-        <v>0.0005822379051345978</v>
+        <v>0.00035532866612352035</v>
       </c>
       <c r="Z38">
-        <v>7.3804323947273021e-09</v>
+        <v>3.6166669776571961e-09</v>
       </c>
       <c r="AA38">
-        <v>4.9471594934531865e-06</v>
+        <v>9.7569205603387181e-06</v>
       </c>
       <c r="AB38">
-        <v>9.4668812993472682e-06</v>
+        <v>2.1545179448346422e-05</v>
       </c>
       <c r="AC38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="AD38">
-        <v>4.0058648410398793e-07</v>
+        <v>1.523015956296857e-06</v>
       </c>
       <c r="AE38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="AF38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="AG38">
-        <v>3.2158812244517187e-12</v>
+        <v>1.4821879117300544e-12</v>
       </c>
       <c r="AH38">
-        <v>2.2203740801902503e-14</v>
+        <v>2.2203804547079253e-14</v>
       </c>
       <c r="AI38">
         <v>21</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1.4059935574649791e-07</v>
+        <v>8.2016536108509325e-08</v>
       </c>
       <c r="C39">
-        <v>1.2783488155802769e-07</v>
+        <v>3.703268056665294e-08</v>
       </c>
       <c r="D39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="E39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="F39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="G39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="H39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="I39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="J39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="K39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="L39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="M39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="N39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="O39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="P39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="Q39">
-        <v>0.00019929846686216564</v>
+        <v>0.00019061255420887009</v>
       </c>
       <c r="R39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="S39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="T39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="U39">
-        <v>2.6095337039082218e-12</v>
+        <v>4.8870942014356698e-11</v>
       </c>
       <c r="V39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="W39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="X39">
-        <v>6.7648415390784614e-08</v>
+        <v>5.4422110315675723e-07</v>
       </c>
       <c r="Y39">
-        <v>0.00010261374673591264</v>
+        <v>0.00015474947850649927</v>
       </c>
       <c r="Z39">
-        <v>4.5592737051779315e-09</v>
+        <v>1.0459496299168939e-08</v>
       </c>
       <c r="AA39">
-        <v>0.99771990723110915</v>
+        <v>0.99859156493773082</v>
       </c>
       <c r="AB39">
-        <v>0.0019778399102241564</v>
+        <v>0.0010623992503338512</v>
       </c>
       <c r="AC39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="AD39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="AE39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="AF39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="AG39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="AH39">
-        <v>2.2202936703905446e-14</v>
+        <v>2.2203516777606537e-14</v>
       </c>
       <c r="AI39">
         <v>26</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>4.9220286062202652e-10</v>
+        <v>9.5717449121617083e-10</v>
       </c>
       <c r="C40">
-        <v>4.0158915024860132e-11</v>
+        <v>9.2142410207286369e-11</v>
       </c>
       <c r="D40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="E40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="F40">
-        <v>3.6329474062337501e-12</v>
+        <v>5.7584379244406058e-11</v>
       </c>
       <c r="G40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="H40">
-        <v>4.6443701945941473e-11</v>
+        <v>3.3596700342514489e-11</v>
       </c>
       <c r="I40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="J40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="K40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="L40">
-        <v>4.0758154531591909e-11</v>
+        <v>1.7742352790488735e-10</v>
       </c>
       <c r="M40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="N40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="O40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="P40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="Q40">
-        <v>0.0054422427898360021</v>
+        <v>0.0083139975082769796</v>
       </c>
       <c r="R40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="S40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="T40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="U40">
-        <v>0.0017752052859445198</v>
+        <v>0.00029274229663773941</v>
       </c>
       <c r="V40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="W40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="X40">
-        <v>2.7069460170267764e-05</v>
+        <v>6.5924823941122836e-05</v>
       </c>
       <c r="Y40">
-        <v>5.0193873489304707e-10</v>
+        <v>3.3529074152173437e-09</v>
       </c>
       <c r="Z40">
-        <v>1.1178176193626707e-09</v>
+        <v>1.7757023370722199e-09</v>
       </c>
       <c r="AA40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="AB40">
-        <v>0.99275548022023508</v>
+        <v>0.99132732891969388</v>
       </c>
       <c r="AC40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="AD40">
-        <v>3.9492964837176576e-13</v>
+        <v>4.452728585600228e-12</v>
       </c>
       <c r="AE40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="AF40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="AG40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="AH40">
-        <v>2.2202290430736618e-14</v>
+        <v>2.2201946961638441e-14</v>
       </c>
       <c r="AI40">
         <v>27</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3.0535546663461539e-06</v>
+        <v>1.5222264550129208e-07</v>
       </c>
       <c r="C41">
-        <v>1.4943616250474478e-07</v>
+        <v>2.462269324612557e-07</v>
       </c>
       <c r="D41">
-        <v>1.9482824811325856e-10</v>
+        <v>9.3092315226974971e-11</v>
       </c>
       <c r="E41">
-        <v>4.3431384271007725e-14</v>
+        <v>1.2720715540835001e-13</v>
       </c>
       <c r="F41">
-        <v>0.00038233855972497679</v>
+        <v>5.4540793308285627e-06</v>
       </c>
       <c r="G41">
-        <v>6.2787587929308179e-10</v>
+        <v>6.8904034353783279e-11</v>
       </c>
       <c r="H41">
-        <v>7.5228595369968162e-05</v>
+        <v>3.3991110509280358e-06</v>
       </c>
       <c r="I41">
-        <v>4.3431384271001427e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="J41">
-        <v>4.3431384271001427e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="K41">
-        <v>0.0094937889273281721</v>
+        <v>0.0098435940924687538</v>
       </c>
       <c r="L41">
-        <v>0.059377445830409444</v>
+        <v>0.13811024483297715</v>
       </c>
       <c r="M41">
-        <v>4.3431384271001427e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="N41">
-        <v>4.3431384271001427e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="O41">
-        <v>4.3431384271001427e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="P41">
-        <v>4.3431384271001427e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="Q41">
-        <v>0.64481108822221866</v>
+        <v>0.63416926014291441</v>
       </c>
       <c r="R41">
-        <v>4.3431384271001427e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="S41">
-        <v>4.3431384271001477e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="T41">
-        <v>2.0122500468763187e-07</v>
+        <v>4.9109755488489384e-10</v>
       </c>
       <c r="U41">
-        <v>2.1394860575377849e-11</v>
+        <v>4.5695954174049692e-13</v>
       </c>
       <c r="V41">
-        <v>0.097471566203721563</v>
+        <v>0.15755504805424733</v>
       </c>
       <c r="W41">
-        <v>4.3431384271001452e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="X41">
-        <v>0.00088695081125050824</v>
+        <v>0.00078533532689771892</v>
       </c>
       <c r="Y41">
-        <v>0.0024543592282343851</v>
+        <v>0.00061591741497416192</v>
       </c>
       <c r="Z41">
-        <v>8.6964202426413833e-06</v>
+        <v>4.0666625857175016e-07</v>
       </c>
       <c r="AA41">
-        <v>5.4511129977986227e-07</v>
+        <v>8.8219755123405189e-09</v>
       </c>
       <c r="AB41">
-        <v>5.2532358264109264e-09</v>
+        <v>3.0668901581742757e-09</v>
       </c>
       <c r="AC41">
-        <v>4.3431384271001427e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="AD41">
-        <v>0.18503458177638024</v>
+        <v>0.058910929286446256</v>
       </c>
       <c r="AE41">
-        <v>4.3431384271001452e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="AF41">
-        <v>4.3431384271001452e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="AG41">
-        <v>4.3431384271001812e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="AH41">
-        <v>4.3431384271001427e-14</v>
+        <v>2.2301464099118904e-14</v>
       </c>
       <c r="AI41">
         <v>16</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.7834290825003541e-09</v>
+        <v>1.6522293303353486e-08</v>
       </c>
       <c r="C42">
-        <v>1.9050750205529031e-07</v>
+        <v>6.0864259156089218e-06</v>
       </c>
       <c r="D42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="E42">
-        <v>0.0010265926049348312</v>
+        <v>0.0058408393282943375</v>
       </c>
       <c r="F42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="G42">
-        <v>4.6188678886643616e-13</v>
+        <v>7.1087313381368024e-12</v>
       </c>
       <c r="H42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="I42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="J42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="K42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="L42">
-        <v>2.8009221763697376e-07</v>
+        <v>0.00013467940650599932</v>
       </c>
       <c r="M42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="N42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="O42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="P42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="Q42">
-        <v>0.9498327664393531</v>
+        <v>0.9884894569211029</v>
       </c>
       <c r="R42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="S42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="T42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="U42">
-        <v>0.04903243483083445</v>
+        <v>0.00023025461895123794</v>
       </c>
       <c r="V42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="W42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="X42">
-        <v>6.9679229212812703e-06</v>
+        <v>4.1614601936200609e-05</v>
       </c>
       <c r="Y42">
-        <v>4.5719417302276546e-10</v>
+        <v>1.3036961923673248e-08</v>
       </c>
       <c r="Z42">
-        <v>6.7000401328192198e-05</v>
+        <v>0.00013147663538162009</v>
       </c>
       <c r="AA42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="AB42">
-        <v>1.9352863184623797e-10</v>
+        <v>9.1112053608813548e-10</v>
       </c>
       <c r="AC42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="AD42">
-        <v>3.3764765828293932e-05</v>
+        <v>0.0051255615839613565</v>
       </c>
       <c r="AE42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="AF42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="AG42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="AH42">
-        <v>2.2200492204293091e-14</v>
+        <v>2.2203126023491705e-14</v>
       </c>
       <c r="AI42">
         <v>16</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.00036393523571030259</v>
+        <v>0.00033884875166326119</v>
       </c>
       <c r="C43">
-        <v>2.2081952193127272e-11</v>
+        <v>3.8716486067083363e-11</v>
       </c>
       <c r="D43">
-        <v>2.440036305870576e-12</v>
+        <v>1.6368887677687638e-11</v>
       </c>
       <c r="E43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="F43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="G43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="H43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="I43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="J43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="K43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="L43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="M43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="N43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="O43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="P43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="Q43">
-        <v>3.8902912192858454e-05</v>
+        <v>2.6817555217784655e-05</v>
       </c>
       <c r="R43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="S43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="T43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="U43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="V43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="W43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="X43">
-        <v>8.6941570205834221e-09</v>
+        <v>8.8532484469586725e-08</v>
       </c>
       <c r="Y43">
-        <v>0.00019372421332936434</v>
+        <v>0.00034290777358643226</v>
       </c>
       <c r="Z43">
-        <v>0.00086289165135943618</v>
+        <v>0.00048404992319224646</v>
       </c>
       <c r="AA43">
-        <v>0.9983360338521855</v>
+        <v>0.99778942689255812</v>
       </c>
       <c r="AB43">
-        <v>0.00020450341601065694</v>
+        <v>0.0010178605156793744</v>
       </c>
       <c r="AC43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="AD43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="AE43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="AF43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="AG43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="AH43">
-        <v>2.2203346416003375e-14</v>
+        <v>2.2202982872091425e-14</v>
       </c>
       <c r="AI43">
         <v>26</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>3.6741006297191778e-07</v>
+        <v>2.1889448910980807e-08</v>
       </c>
       <c r="C44">
-        <v>2.1976088074293064e-09</v>
+        <v>1.6836258845622606e-10</v>
       </c>
       <c r="D44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="E44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="F44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="G44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="H44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="I44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="J44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="K44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="L44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="M44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="N44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="O44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="P44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="Q44">
-        <v>2.0634333911710079e-05</v>
+        <v>0.0014237045696421375</v>
       </c>
       <c r="R44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="S44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="T44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="U44">
-        <v>1.0131833854639432e-09</v>
+        <v>5.91665942858219e-10</v>
       </c>
       <c r="V44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="W44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="X44">
-        <v>1.8706244296162647e-07</v>
+        <v>2.4495712857745841e-07</v>
       </c>
       <c r="Y44">
-        <v>8.5464184711328827e-05</v>
+        <v>0.00014280098920722872</v>
       </c>
       <c r="Z44">
-        <v>4.4351200474581814e-09</v>
+        <v>1.0458193429550545e-08</v>
       </c>
       <c r="AA44">
-        <v>0.99989152030938888</v>
+        <v>0.99835727369008587</v>
       </c>
       <c r="AB44">
-        <v>1.8190530369832204e-06</v>
+        <v>7.5942685732269266e-05</v>
       </c>
       <c r="AC44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="AD44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="AE44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="AF44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="AG44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="AH44">
-        <v>2.2204387525729476e-14</v>
+        <v>2.2203360565690619e-14</v>
       </c>
       <c r="AI44">
         <v>26</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.00077920613357873418</v>
+        <v>0.0015148430660863021</v>
       </c>
       <c r="C45">
-        <v>1.7030669032839366e-09</v>
+        <v>7.8726389708746969e-10</v>
       </c>
       <c r="D45">
-        <v>5.7797635275795052e-11</v>
+        <v>2.4500806786747772e-11</v>
       </c>
       <c r="E45">
-        <v>4.1740362017739014e-12</v>
+        <v>1.0101129165422437e-11</v>
       </c>
       <c r="F45">
-        <v>1.0132896591525322e-08</v>
+        <v>4.9086596714353774e-09</v>
       </c>
       <c r="G45">
-        <v>5.5528450364962129e-08</v>
+        <v>7.9270605006876589e-08</v>
       </c>
       <c r="H45">
-        <v>1.1090416355524518e-07</v>
+        <v>7.8442257648583214e-08</v>
       </c>
       <c r="I45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="J45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="K45">
-        <v>5.1080853397020994e-06</v>
+        <v>1.5972618709463528e-06</v>
       </c>
       <c r="L45">
-        <v>3.3266822516854834e-06</v>
+        <v>2.9121349794728167e-06</v>
       </c>
       <c r="M45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="N45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="O45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="P45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="Q45">
-        <v>0.0005422748033063878</v>
+        <v>0.00030686235766055214</v>
       </c>
       <c r="R45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="S45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="T45">
-        <v>1.7999459678587209e-07</v>
+        <v>2.1012796250068793e-07</v>
       </c>
       <c r="U45">
-        <v>0.00091333193093679247</v>
+        <v>0.002590075851421827</v>
       </c>
       <c r="V45">
-        <v>2.9158241005528296e-05</v>
+        <v>1.5137997029849444e-05</v>
       </c>
       <c r="W45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="X45">
-        <v>0.00062267472498100333</v>
+        <v>0.000405945978838807</v>
       </c>
       <c r="Y45">
-        <v>0.0043757920443825218</v>
+        <v>0.0046823329195586384</v>
       </c>
       <c r="Z45">
-        <v>1.2894885913631074e-09</v>
+        <v>8.5369829253228119e-10</v>
       </c>
       <c r="AA45">
-        <v>3.101846550572699e-05</v>
+        <v>2.5686386438083347e-05</v>
       </c>
       <c r="AB45">
-        <v>0.99269774926374055</v>
+        <v>0.99045423161089663</v>
       </c>
       <c r="AC45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="AD45">
-        <v>9.534214809030775e-12</v>
+        <v>9.4614364549725939e-12</v>
       </c>
       <c r="AE45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="AF45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="AG45">
-        <v>5.1396439194297041e-13</v>
+        <v>4.1982276256061996e-13</v>
       </c>
       <c r="AH45">
-        <v>2.2202602715196494e-14</v>
+        <v>2.2203055070996335e-14</v>
       </c>
       <c r="AI45">
         <v>27</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>3.1580002415870792e-07</v>
+        <v>7.1770869397005952e-07</v>
       </c>
       <c r="C46">
-        <v>4.1264034710285007e-09</v>
+        <v>1.1967266236816644e-08</v>
       </c>
       <c r="D46">
-        <v>2.5561094577764216e-14</v>
+        <v>3.1587726440872083e-14</v>
       </c>
       <c r="E46">
-        <v>2.5561094577764194e-14</v>
+        <v>3.1587726440872083e-14</v>
       </c>
       <c r="F46">
-        <v>2.5561094577764194e-14</v>
+        <v>3.1587726440872133e-14</v>
       </c>
       <c r="G46">
-        <v>2.5561094577764209e-14</v>
+        <v>3.1587726440872102e-14</v>
       </c>
       <c r="H46">
-        <v>1.8429659240628919e-10</v>
+        <v>9.4770792658537332e-10</v>
       </c>
       <c r="I46">
-        <v>2.5561094577764209e-14</v>
+        <v>3.1587726440872139e-14</v>
       </c>
       <c r="J46">
-        <v>2.5561094577764209e-14</v>
+        <v>3.1587726440872139e-14</v>
       </c>
       <c r="K46">
-        <v>3.4464063128121433e-11</v>
+        <v>1.3106479016172813e-10</v>
       </c>
       <c r="L46">
-        <v>1.5414291645780068e-10</v>
+        <v>3.6269171941207443e-10</v>
       </c>
       <c r="M46">
-        <v>2.5561094577764594e-14</v>
+        <v>3.1587726440872165e-14</v>
       </c>
       <c r="N46">
-        <v>2.5561094577764594e-14</v>
+        <v>3.1587726440872121e-14</v>
       </c>
       <c r="O46">
-        <v>2.5561094577764594e-14</v>
+        <v>3.1587726440872121e-14</v>
       </c>
       <c r="P46">
-        <v>2.5561094577764594e-14</v>
+        <v>0.015260383582412404</v>
       </c>
       <c r="Q46">
-        <v>0.91399456144726621</v>
+        <v>0.96099498971858766</v>
       </c>
       <c r="R46">
-        <v>2.5561094577764594e-14</v>
+        <v>3.1587726440872121e-14</v>
       </c>
       <c r="S46">
-        <v>2.5561094577764519e-14</v>
+        <v>3.1587726440871975e-14</v>
       </c>
       <c r="T46">
-        <v>2.5561094577770362e-14</v>
+        <v>1.9831297868292271e-13</v>
       </c>
       <c r="U46">
-        <v>0.0216758316458413</v>
+        <v>0.008117988442668549</v>
       </c>
       <c r="V46">
-        <v>2.5561094577764519e-14</v>
+        <v>3.1587726440871975e-14</v>
       </c>
       <c r="W46">
-        <v>2.5561094577764531e-14</v>
+        <v>3.1587726440872013e-14</v>
       </c>
       <c r="X46">
-        <v>1.7953312824092675e-11</v>
+        <v>2.1248591349501695e-10</v>
       </c>
       <c r="Y46">
-        <v>4.8177552264248561e-10</v>
+        <v>2.9220523206563387e-09</v>
       </c>
       <c r="Z46">
-        <v>0.064196596548900073</v>
+        <v>0.015190431481902297</v>
       </c>
       <c r="AA46">
-        <v>2.55610945777645e-14</v>
+        <v>3.1587726440870896e-14</v>
       </c>
       <c r="AB46">
-        <v>0.00013268934268951247</v>
+        <v>0.00043547085311032807</v>
       </c>
       <c r="AC46">
-        <v>2.55610945777645e-14</v>
+        <v>3.1587726440870896e-14</v>
       </c>
       <c r="AD46">
-        <v>2.1570640024882106e-10</v>
+        <v>1.6685568180882168e-09</v>
       </c>
       <c r="AE46">
-        <v>2.5561094577764519e-14</v>
+        <v>3.1587726440870896e-14</v>
       </c>
       <c r="AF46">
-        <v>2.5561094577764547e-14</v>
+        <v>3.1587726440870896e-14</v>
       </c>
       <c r="AG46">
-        <v>2.5561094577764547e-14</v>
+        <v>3.1587726440870896e-14</v>
       </c>
       <c r="AH46">
-        <v>2.5561094577764519e-14</v>
+        <v>3.1587726440870896e-14</v>
       </c>
       <c r="AI46">
         <v>16</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>6.943859047474516e-07</v>
+        <v>6.8683100813388104e-07</v>
       </c>
       <c r="C47">
-        <v>8.5925280667597385e-09</v>
+        <v>6.2871196823289972e-09</v>
       </c>
       <c r="D47">
-        <v>4.3990387369185431e-08</v>
+        <v>1.2917545262144233e-07</v>
       </c>
       <c r="E47">
-        <v>2.2202249503507738e-11</v>
+        <v>3.9758831395921177e-11</v>
       </c>
       <c r="F47">
-        <v>1.920943560144239e-12</v>
+        <v>1.3195188727221667e-13</v>
       </c>
       <c r="G47">
-        <v>6.4246787897547662e-06</v>
+        <v>1.3459342817999201e-05</v>
       </c>
       <c r="H47">
-        <v>1.5710324604975064e-12</v>
+        <v>1.4965719774444979e-13</v>
       </c>
       <c r="I47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="J47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="K47">
-        <v>6.445021790567862e-10</v>
+        <v>7.3907466875933921e-12</v>
       </c>
       <c r="L47">
-        <v>3.9036822814297169e-09</v>
+        <v>8.0250563941705043e-10</v>
       </c>
       <c r="M47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="N47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="O47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="P47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="Q47">
-        <v>7.451135821682875e-05</v>
+        <v>0.00014093128161979363</v>
       </c>
       <c r="R47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="S47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="T47">
-        <v>6.296435183558431e-05</v>
+        <v>1.6322342241091607e-05</v>
       </c>
       <c r="U47">
-        <v>7.3195121335105439e-07</v>
+        <v>2.1284013784947067e-07</v>
       </c>
       <c r="V47">
-        <v>0.99879449930938946</v>
+        <v>0.99897585232418973</v>
       </c>
       <c r="W47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="X47">
-        <v>6.1806642982288246e-05</v>
+        <v>0.00039703347832413435</v>
       </c>
       <c r="Y47">
-        <v>0.00097132406029734294</v>
+        <v>0.00042103790743573113</v>
       </c>
       <c r="Z47">
-        <v>1.6358380694396016e-09</v>
+        <v>2.8354822934781372e-09</v>
       </c>
       <c r="AA47">
-        <v>4.8637434479327894e-06</v>
+        <v>1.0711881767683087e-05</v>
       </c>
       <c r="AB47">
-        <v>2.131134234167295e-05</v>
+        <v>2.2551100911705066e-05</v>
       </c>
       <c r="AC47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="AD47">
-        <v>8.09381812427358e-07</v>
+        <v>1.0615197313338642e-06</v>
       </c>
       <c r="AE47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="AF47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="AG47">
-        <v>8.4770668785390571e-13</v>
+        <v>1.5347827541657717e-12</v>
       </c>
       <c r="AH47">
-        <v>2.2203652275178117e-14</v>
+        <v>2.2203773480122098e-14</v>
       </c>
       <c r="AI47">
         <v>21</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.2168902156295489e-05</v>
+        <v>6.7865610830336636e-06</v>
       </c>
       <c r="C48">
-        <v>1.9748923668501645e-08</v>
+        <v>1.6657273960607177e-08</v>
       </c>
       <c r="D48">
-        <v>4.3358138067235066e-12</v>
+        <v>1.6232416807177471e-12</v>
       </c>
       <c r="E48">
-        <v>9.6914236279513874e-11</v>
+        <v>3.2400070397664741e-10</v>
       </c>
       <c r="F48">
-        <v>3.184900168041898e-07</v>
+        <v>3.770128894509883e-07</v>
       </c>
       <c r="G48">
-        <v>5.4343194814500969e-10</v>
+        <v>1.7936995070036189e-09</v>
       </c>
       <c r="H48">
-        <v>3.3445951086569529e-05</v>
+        <v>4.6005801611385009e-05</v>
       </c>
       <c r="I48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="J48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="K48">
-        <v>5.622171562783484e-12</v>
+        <v>9.0198140193513791e-12</v>
       </c>
       <c r="L48">
-        <v>1.7293111878137212e-05</v>
+        <v>2.2576957648597275e-05</v>
       </c>
       <c r="M48">
-        <v>1.6094275648907147e-12</v>
+        <v>2.9219524296722015e-12</v>
       </c>
       <c r="N48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="O48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="P48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="Q48">
-        <v>0.0010176063123644393</v>
+        <v>0.00049545078356101732</v>
       </c>
       <c r="R48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="S48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="T48">
-        <v>9.7935226977370025e-10</v>
+        <v>9.580545831879958e-10</v>
       </c>
       <c r="U48">
-        <v>0.0014577672298663657</v>
+        <v>0.0014514338022512349</v>
       </c>
       <c r="V48">
-        <v>7.1988790860611439e-07</v>
+        <v>3.2033623981708561e-07</v>
       </c>
       <c r="W48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="X48">
-        <v>3.1202900745172613e-05</v>
+        <v>3.4361586037736485e-05</v>
       </c>
       <c r="Y48">
-        <v>0.00073367749000674434</v>
+        <v>0.00091218356407266965</v>
       </c>
       <c r="Z48">
-        <v>2.1364866973389363e-11</v>
+        <v>2.1247822708671904e-11</v>
       </c>
       <c r="AA48">
-        <v>3.8183505464992081e-08</v>
+        <v>1.1889067831615535e-07</v>
       </c>
       <c r="AB48">
-        <v>0.99669573895931496</v>
+        <v>0.99703036362982889</v>
       </c>
       <c r="AC48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="AD48">
-        <v>1.1793072999387476e-09</v>
+        <v>1.3059675410385842e-09</v>
       </c>
       <c r="AE48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="AF48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="AG48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="AH48">
-        <v>2.2202259084930444e-14</v>
+        <v>2.2202479993772809e-14</v>
       </c>
       <c r="AI48">
         <v>27</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.1419201358503928e-06</v>
+        <v>6.7402189188216547e-07</v>
       </c>
       <c r="C49">
-        <v>1.1700019400495531e-08</v>
+        <v>1.2621534438262043e-08</v>
       </c>
       <c r="D49">
-        <v>1.9349682799841965e-09</v>
+        <v>4.5089606804657998e-10</v>
       </c>
       <c r="E49">
-        <v>4.0942141706152401e-12</v>
+        <v>1.9619972150557113e-12</v>
       </c>
       <c r="F49">
-        <v>8.9914551495433668e-08</v>
+        <v>1.4713939980308435e-07</v>
       </c>
       <c r="G49">
-        <v>9.9487366053419289e-10</v>
+        <v>1.3743068413502389e-09</v>
       </c>
       <c r="H49">
-        <v>1.7620812669395974e-07</v>
+        <v>2.177553978391014e-07</v>
       </c>
       <c r="I49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="J49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="K49">
-        <v>0.00021520016515555639</v>
+        <v>0.00015736507372633252</v>
       </c>
       <c r="L49">
-        <v>7.2766349507791348e-05</v>
+        <v>7.4821836223557434e-05</v>
       </c>
       <c r="M49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="N49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="O49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="P49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="Q49">
-        <v>0.0037799987936524607</v>
+        <v>0.004844223532449541</v>
       </c>
       <c r="R49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="S49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="T49">
-        <v>9.6940161489835638e-09</v>
+        <v>5.1305965627484011e-09</v>
       </c>
       <c r="U49">
-        <v>0.00012077881241764167</v>
+        <v>9.5212000746872408e-05</v>
       </c>
       <c r="V49">
-        <v>4.2072222925981168e-05</v>
+        <v>2.8381992039334901e-05</v>
       </c>
       <c r="W49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="X49">
-        <v>0.003519509515661056</v>
+        <v>0.003814948192635564</v>
       </c>
       <c r="Y49">
-        <v>0.0019497024480899221</v>
+        <v>0.0016504071500119946</v>
       </c>
       <c r="Z49">
-        <v>4.0321249957966243e-08</v>
+        <v>7.9095049504077513e-08</v>
       </c>
       <c r="AA49">
-        <v>7.2154031364268317e-06</v>
+        <v>1.1702436841099187e-05</v>
       </c>
       <c r="AB49">
-        <v>0.99029128358822782</v>
+        <v>0.98932180018373006</v>
       </c>
       <c r="AC49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="AD49">
-        <v>8.8787730462645415e-12</v>
+        <v>1.0249989415576622e-11</v>
       </c>
       <c r="AE49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="AF49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="AG49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="AH49">
-        <v>2.2203121637530946e-14</v>
+        <v>2.2203192905453827e-14</v>
       </c>
       <c r="AI49">
         <v>27</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.00013778859729795626</v>
+        <v>0.00018479450194949158</v>
       </c>
       <c r="C50">
-        <v>1.2432449253836217e-08</v>
+        <v>5.0528270264012792e-09</v>
       </c>
       <c r="D50">
-        <v>1.2371544389335718e-08</v>
+        <v>3.0235891702366697e-08</v>
       </c>
       <c r="E50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="F50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="G50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="H50">
-        <v>1.378550797296362e-13</v>
+        <v>2.2268046490461589e-13</v>
       </c>
       <c r="I50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="J50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="K50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="L50">
-        <v>1.0059188162434824e-13</v>
+        <v>9.9427664524332799e-14</v>
       </c>
       <c r="M50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="N50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="O50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="P50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="Q50">
-        <v>0.00026808111448633663</v>
+        <v>0.00018621536396999424</v>
       </c>
       <c r="R50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="S50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="T50">
-        <v>6.4299911582865275e-07</v>
+        <v>5.0149980241993343e-07</v>
       </c>
       <c r="U50">
-        <v>0.00067216778798037257</v>
+        <v>0.0021580192924683258</v>
       </c>
       <c r="V50">
-        <v>4.3515731971438107e-13</v>
+        <v>7.7823642898874959e-14</v>
       </c>
       <c r="W50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="X50">
-        <v>0.020678581372581533</v>
+        <v>0.01157097815823886</v>
       </c>
       <c r="Y50">
-        <v>0.0013860110809719851</v>
+        <v>0.001470338997470264</v>
       </c>
       <c r="Z50">
-        <v>7.9197409463465915e-08</v>
+        <v>1.3123656615024801e-07</v>
       </c>
       <c r="AA50">
-        <v>0.97683095639136375</v>
+        <v>0.98439917889759376</v>
       </c>
       <c r="AB50">
-        <v>2.5666355162640804e-05</v>
+        <v>2.9805949497609423e-05</v>
       </c>
       <c r="AC50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="AD50">
-        <v>6.2364117713378739e-14</v>
+        <v>3.764084933106141e-14</v>
       </c>
       <c r="AE50">
-        <v>2.9852327303098359e-10</v>
+        <v>8.1290912743252773e-10</v>
       </c>
       <c r="AF50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="AG50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="AH50">
-        <v>2.2202130683627915e-14</v>
+        <v>2.2202954616895581e-14</v>
       </c>
       <c r="AI50">
         <v>26</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
+      <c r="A51" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>2.2204490685647637e-14</v>
+        <v>4.0722507341231602e-08</v>
       </c>
       <c r="C51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.4865608004823415e-10</v>
       </c>
       <c r="D51">
-        <v>2.2204490685647637e-14</v>
+        <v>6.7990915250598118e-09</v>
       </c>
       <c r="E51">
-        <v>0.49998973311532746</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="F51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="G51">
-        <v>4.2607980277070139e-07</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="H51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="I51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="J51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="K51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="L51">
-        <v>2.2204490685647637e-14</v>
+        <v>1.1771488809155329e-12</v>
       </c>
       <c r="M51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="N51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="O51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="P51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="Q51">
-        <v>8.173976620694087e-09</v>
+        <v>2.3946397554551276e-06</v>
       </c>
       <c r="R51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="S51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="T51">
-        <v>2.2204490685647637e-14</v>
+        <v>8.6998633858820697e-09</v>
       </c>
       <c r="U51">
-        <v>0.49998954673245322</v>
+        <v>0.00036986461063609114</v>
       </c>
       <c r="V51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="W51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="X51">
-        <v>1.442294783856112e-06</v>
+        <v>0.00011293624052157038</v>
       </c>
       <c r="Y51">
-        <v>2.2204490685647637e-14</v>
+        <v>0.0016323273224538542</v>
       </c>
       <c r="Z51">
-        <v>1.8843603056558733e-05</v>
+        <v>2.0167142945357756e-08</v>
       </c>
       <c r="AA51">
-        <v>2.2204490685647637e-14</v>
+        <v>0.99551581459292382</v>
       </c>
       <c r="AB51">
-        <v>2.2204490685647637e-14</v>
+        <v>0.0023651634684267613</v>
       </c>
       <c r="AC51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="AD51">
-        <v>2.2204490685647637e-14</v>
+        <v>5.1824463571680427e-07</v>
       </c>
       <c r="AE51">
-        <v>2.2204490685647637e-14</v>
+        <v>9.0424178646519507e-07</v>
       </c>
       <c r="AF51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="AG51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="AH51">
-        <v>2.2204490685647637e-14</v>
+        <v>2.2201932762853226e-14</v>
       </c>
       <c r="AI51">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
+      <c r="A52" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>9.9686388871862886e-08</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="C52">
-        <v>3.648694562403851e-10</v>
+        <v>1.2264169519754456e-11</v>
       </c>
       <c r="D52">
-        <v>2.0983806565044083e-09</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="E52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="F52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="G52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="H52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="I52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="J52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="K52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="L52">
-        <v>7.4401731489607451e-13</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="M52">
-        <v>2.2202000178868369e-14</v>
+        <v>8.2346842687113552e-12</v>
       </c>
       <c r="N52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="O52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="P52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="Q52">
-        <v>1.5614148859166968e-06</v>
+        <v>2.2105460018796988e-09</v>
       </c>
       <c r="R52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="S52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="T52">
-        <v>2.5134706052911358e-08</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="U52">
-        <v>0.00036399960135492283</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="V52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="W52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="X52">
-        <v>9.5809151887373356e-05</v>
+        <v>3.4198295418287524e-10</v>
       </c>
       <c r="Y52">
-        <v>0.0023242551813398358</v>
+        <v>1.7550349009397431e-08</v>
       </c>
       <c r="Z52">
-        <v>7.3498964178652737e-09</v>
+        <v>2.5907533076079764e-10</v>
       </c>
       <c r="AA52">
-        <v>0.99527259240414334</v>
+        <v>0.9999999717873882</v>
       </c>
       <c r="AB52">
-        <v>0.0019403974272448293</v>
+        <v>7.8296044043126096e-09</v>
       </c>
       <c r="AC52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="AD52">
-        <v>1.9961794744325523e-07</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="AE52">
-        <v>1.0505657889618061e-06</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="AF52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="AG52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="AH52">
-        <v>2.2202000178868369e-14</v>
+        <v>2.2204460473521544e-14</v>
       </c>
       <c r="AI52">
         <v>26</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
+      <c r="A53" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>2.220446048949375e-14</v>
+        <v>0.16256037039919694</v>
       </c>
       <c r="C53">
-        <v>4.9065899635278305e-13</v>
+        <v>1.6480511015993121e-10</v>
       </c>
       <c r="D53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="E53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="F53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="G53">
-        <v>2.220446048949375e-14</v>
+        <v>8.8216190319682825e-12</v>
       </c>
       <c r="H53">
-        <v>2.220446048949375e-14</v>
+        <v>1.4896119649256854e-09</v>
       </c>
       <c r="I53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="J53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="K53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="L53">
-        <v>2.220446048949375e-14</v>
+        <v>2.899297174836886e-10</v>
       </c>
       <c r="M53">
-        <v>5.3849886582272245e-13</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="N53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="O53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="P53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="Q53">
-        <v>3.0847134603408934e-09</v>
+        <v>0.83509316149940505</v>
       </c>
       <c r="R53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="S53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="T53">
-        <v>2.220446048949375e-14</v>
+        <v>1.2522274115073526e-09</v>
       </c>
       <c r="U53">
-        <v>2.220446048949375e-14</v>
+        <v>5.6734864370970013e-12</v>
       </c>
       <c r="V53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2760814772158815e-05</v>
       </c>
       <c r="W53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="X53">
-        <v>2.998554065604766e-11</v>
+        <v>1.9960491638088838e-09</v>
       </c>
       <c r="Y53">
-        <v>5.6629785554461433e-10</v>
+        <v>0.0023219530124652765</v>
       </c>
       <c r="Z53">
-        <v>9.851971467747496e-11</v>
+        <v>8.5429044167992393e-09</v>
       </c>
       <c r="AA53">
-        <v>0.99999999552560637</v>
+        <v>1.0470882825827077e-08</v>
       </c>
       <c r="AB53">
-        <v>6.9329267886045194e-10</v>
+        <v>2.1673128346918234e-13</v>
       </c>
       <c r="AC53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="AD53">
-        <v>2.220446048949375e-14</v>
+        <v>1.7300526387068917e-06</v>
       </c>
       <c r="AE53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="AF53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="AG53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="AH53">
-        <v>2.220446048949375e-14</v>
+        <v>2.2197876108804956e-14</v>
       </c>
       <c r="AI53">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
+      <c r="A54" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>0.20135093124399642</v>
+        <v>0.0094432009957431395</v>
       </c>
       <c r="C54">
-        <v>1.1735794338582478e-10</v>
+        <v>1.5658823782037424e-10</v>
       </c>
       <c r="D54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="E54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="F54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.1418437656487999e-07</v>
       </c>
       <c r="G54">
-        <v>1.5375187025326046e-12</v>
+        <v>5.9343152029885715e-07</v>
       </c>
       <c r="H54">
-        <v>3.9743641914773958e-12</v>
+        <v>4.0547132114984639e-07</v>
       </c>
       <c r="I54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="J54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="K54">
-        <v>2.2197957265328091e-14</v>
+        <v>1.1621134575576927e-11</v>
       </c>
       <c r="L54">
-        <v>2.3207093132041113e-10</v>
+        <v>1.5776702775938265e-09</v>
       </c>
       <c r="M54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="N54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="O54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="P54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="Q54">
-        <v>0.79736387563778843</v>
+        <v>0.0042438028690447082</v>
       </c>
       <c r="R54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="S54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="T54">
-        <v>3.1335759647138425e-10</v>
+        <v>4.6741624890337336e-08</v>
       </c>
       <c r="U54">
-        <v>3.5150154249396398e-10</v>
+        <v>4.5751099290958662e-09</v>
       </c>
       <c r="V54">
-        <v>5.9187484751880823e-06</v>
+        <v>0.000945170524073766</v>
       </c>
       <c r="W54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="X54">
-        <v>9.8169272837512085e-10</v>
+        <v>8.5174041631560183e-07</v>
       </c>
       <c r="Y54">
-        <v>0.0012792356285065956</v>
+        <v>0.0027476663497962919</v>
       </c>
       <c r="Z54">
-        <v>1.4857882469647647e-10</v>
+        <v>8.4101089268150885e-12</v>
       </c>
       <c r="AA54">
-        <v>2.08869686140129e-09</v>
+        <v>4.4950617949071594e-05</v>
       </c>
       <c r="AB54">
-        <v>3.3323223511234011e-14</v>
+        <v>0.98257308360859608</v>
       </c>
       <c r="AC54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="AD54">
-        <v>3.4502032243251812e-08</v>
+        <v>7.1357826729441699e-09</v>
       </c>
       <c r="AE54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="AF54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="AG54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="AH54">
-        <v>2.2197957265328091e-14</v>
+        <v>2.2203735495836697e-14</v>
       </c>
       <c r="AI54">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
+      <c r="A55" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>0.0066573042431289468</v>
+        <v>0.019750895265710333</v>
       </c>
       <c r="C55">
-        <v>3.5348458243175475e-10</v>
+        <v>0.00011801568883777179</v>
       </c>
       <c r="D55">
-        <v>2.220399247030365e-14</v>
+        <v>1.259054831446165e-09</v>
       </c>
       <c r="E55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314460547e-09</v>
       </c>
       <c r="F55">
-        <v>1.1383197428155436e-07</v>
+        <v>1.7193156959766062e-08</v>
       </c>
       <c r="G55">
-        <v>3.1412339631732024e-07</v>
+        <v>1.2590548314462185e-09</v>
       </c>
       <c r="H55">
-        <v>1.8539861565761503e-07</v>
+        <v>0.0030764692644100426</v>
       </c>
       <c r="I55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314460539e-09</v>
       </c>
       <c r="J55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314460539e-09</v>
       </c>
       <c r="K55">
-        <v>2.820719341547655e-12</v>
+        <v>0.064320113242398932</v>
       </c>
       <c r="L55">
-        <v>1.8337407251682718e-09</v>
+        <v>0.00017942447743272261</v>
       </c>
       <c r="M55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314460541e-09</v>
       </c>
       <c r="N55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314460539e-09</v>
       </c>
       <c r="O55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314460539e-09</v>
       </c>
       <c r="P55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314460539e-09</v>
       </c>
       <c r="Q55">
-        <v>0.01361367144344852</v>
+        <v>0.24731957233730176</v>
       </c>
       <c r="R55">
-        <v>2.220399247030365e-14</v>
+        <v>1.259054831446105e-09</v>
       </c>
       <c r="S55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314461052e-09</v>
       </c>
       <c r="T55">
-        <v>4.3789716531141214e-08</v>
+        <v>1.2590548314476613e-09</v>
       </c>
       <c r="U55">
-        <v>1.9326350884255116e-09</v>
+        <v>8.7364066031115784e-08</v>
       </c>
       <c r="V55">
-        <v>0.0010398394843925247</v>
+        <v>1.2590548314461052e-09</v>
       </c>
       <c r="W55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314461052e-09</v>
       </c>
       <c r="X55">
-        <v>2.145517996801386e-06</v>
+        <v>4.0045791044698007e-05</v>
       </c>
       <c r="Y55">
-        <v>0.0023392699816672455</v>
+        <v>0.00068710671063931784</v>
       </c>
       <c r="Z55">
-        <v>3.164194039434464e-12</v>
+        <v>0.50416813688309681</v>
       </c>
       <c r="AA55">
-        <v>1.1503268030010028e-05</v>
+        <v>1.2590548314461081e-09</v>
       </c>
       <c r="AB55">
-        <v>0.97633559699363315</v>
+        <v>0.16034008934175328</v>
       </c>
       <c r="AC55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314461058e-09</v>
       </c>
       <c r="AD55">
-        <v>7.7977993723175475e-09</v>
+        <v>1.2590548314463333e-09</v>
       </c>
       <c r="AE55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314461058e-09</v>
       </c>
       <c r="AF55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314461058e-09</v>
       </c>
       <c r="AG55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314461058e-09</v>
       </c>
       <c r="AH55">
-        <v>2.220399247030365e-14</v>
+        <v>1.2590548314461056e-09</v>
       </c>
       <c r="AI55">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
+      <c r="A56" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>0.12872881946402565</v>
+        <v>0.00016552310016919674</v>
       </c>
       <c r="C56">
-        <v>0.00024092301911100061</v>
+        <v>2.5081053866197048e-11</v>
       </c>
       <c r="D56">
-        <v>1.1541175665668145e-08</v>
+        <v>2.5611346762816985e-06</v>
       </c>
       <c r="E56">
-        <v>1.1541175665668159e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="F56">
-        <v>1.1541175665685642e-08</v>
+        <v>1.7963738487505521e-12</v>
       </c>
       <c r="G56">
-        <v>1.1541175665669353e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="H56">
-        <v>0.00175766027650868</v>
+        <v>1.1323200524432283e-13</v>
       </c>
       <c r="I56">
-        <v>1.154117566566815e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="J56">
-        <v>1.1541175665668159e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="K56">
-        <v>0.087186845989709494</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="L56">
-        <v>6.8979951942382402e-05</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="M56">
-        <v>1.1541175665668135e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="N56">
-        <v>1.1541175665668135e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="O56">
-        <v>1.1541175665668135e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="P56">
-        <v>1.1541175665668135e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="Q56">
-        <v>0.22670356471074321</v>
+        <v>0.0086010233814028721</v>
       </c>
       <c r="R56">
-        <v>1.1541175665668135e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="S56">
-        <v>1.1541175665668162e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="T56">
-        <v>1.1541175665683316e-08</v>
+        <v>2.8256775287103701e-09</v>
       </c>
       <c r="U56">
-        <v>1.9166800388263315e-06</v>
+        <v>0.00013000627245715084</v>
       </c>
       <c r="V56">
-        <v>1.1541175665668142e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="W56">
-        <v>1.1541175665668149e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="X56">
-        <v>0.00034115626281630199</v>
+        <v>4.8622667319363294e-06</v>
       </c>
       <c r="Y56">
-        <v>0.0013219706331343022</v>
+        <v>0.00022850040451948575</v>
       </c>
       <c r="Z56">
-        <v>0.35458544532804231</v>
+        <v>9.3980350015834734e-06</v>
       </c>
       <c r="AA56">
-        <v>1.154117566566814e-08</v>
+        <v>0.99084738099141201</v>
       </c>
       <c r="AB56">
-        <v>0.19906246377806325</v>
+        <v>1.0740092059683628e-05</v>
       </c>
       <c r="AC56">
-        <v>1.154117566566814e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="AD56">
-        <v>1.154117566566814e-08</v>
+        <v>1.3018575840124317e-09</v>
       </c>
       <c r="AE56">
-        <v>1.1541175665667594e-08</v>
+        <v>1.6664464050081213e-10</v>
       </c>
       <c r="AF56">
-        <v>1.1541175665667594e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="AG56">
-        <v>1.1541175665667594e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="AH56">
-        <v>1.1541175665667538e-08</v>
+        <v>2.2202021747018226e-14</v>
       </c>
       <c r="AI56">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
+      <c r="A57" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>0.00024701561895224016</v>
+        <v>1.2454175272623014e-09</v>
       </c>
       <c r="C57">
-        <v>1.5898364193616105e-11</v>
+        <v>1.1057024186627455e-10</v>
       </c>
       <c r="D57">
-        <v>4.4839275369242655e-07</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="E57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="F57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="G57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="H57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="I57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="J57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="K57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="L57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="M57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="N57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="O57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="P57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="Q57">
-        <v>0.02353044707357084</v>
+        <v>0.0085938801859204404</v>
       </c>
       <c r="R57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="S57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="T57">
-        <v>6.2460852360018869e-11</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="U57">
-        <v>7.6412275978318751e-07</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="V57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="W57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="X57">
-        <v>1.8414905328284423e-05</v>
+        <v>2.349978758103489e-07</v>
       </c>
       <c r="Y57">
-        <v>0.00015882383309676816</v>
+        <v>4.7294232902530473e-06</v>
       </c>
       <c r="Z57">
-        <v>5.9996613828035084e-06</v>
+        <v>1.2480423590965416e-06</v>
       </c>
       <c r="AA57">
-        <v>0.97603776364871342</v>
+        <v>0.99139990599095751</v>
       </c>
       <c r="AB57">
-        <v>3.2265821628150345e-07</v>
+        <v>3.0541063769109319e-12</v>
       </c>
       <c r="AC57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="AD57">
-        <v>6.3472758883474207e-12</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="AE57">
-        <v>7.5473101425333639e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="AF57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="AG57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="AH57">
-        <v>2.2201674767142527e-14</v>
+        <v>2.2201819151880539e-14</v>
       </c>
       <c r="AI57">
         <v>26</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
+      <c r="A58" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>5.5641531085932429e-09</v>
+        <v>0.022668740985178591</v>
       </c>
       <c r="C58">
-        <v>3.4103347135403119e-10</v>
+        <v>2.289826727967876e-10</v>
       </c>
       <c r="D58">
-        <v>2.2201832638144947e-14</v>
+        <v>0.10324735113656822</v>
       </c>
       <c r="E58">
-        <v>2.2201832638144947e-14</v>
+        <v>0.00089994081951075961</v>
       </c>
       <c r="F58">
-        <v>2.2201832638144947e-14</v>
+        <v>1.5052311896848121e-08</v>
       </c>
       <c r="G58">
-        <v>2.2201832638144947e-14</v>
+        <v>0.0044459923120627361</v>
       </c>
       <c r="H58">
-        <v>2.2201832638144947e-14</v>
+        <v>1.2768035158765939e-05</v>
       </c>
       <c r="I58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.0631383746620505e-13</v>
       </c>
       <c r="J58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.0631383746620505e-13</v>
       </c>
       <c r="K58">
-        <v>2.2201832638144947e-14</v>
+        <v>1.0584395959078269e-07</v>
       </c>
       <c r="L58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.3052059571637559e-10</v>
       </c>
       <c r="M58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.0631383746621e-13</v>
       </c>
       <c r="N58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.0631383746620507e-13</v>
       </c>
       <c r="O58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.0631383746620507e-13</v>
       </c>
       <c r="P58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.0631383746620507e-13</v>
       </c>
       <c r="Q58">
-        <v>0.010688568717736158</v>
+        <v>0.69842414790617147</v>
       </c>
       <c r="R58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.0631383746620507e-13</v>
       </c>
       <c r="S58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.06313837466205e-13</v>
       </c>
       <c r="T58">
-        <v>2.2201832638144947e-14</v>
+        <v>0.0028933326014766851</v>
       </c>
       <c r="U58">
-        <v>2.2201832638144947e-14</v>
+        <v>4.6860973032605541e-06</v>
       </c>
       <c r="V58">
-        <v>2.2201832638144947e-14</v>
+        <v>9.1982654113129575e-05</v>
       </c>
       <c r="W58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.0631383746620467e-13</v>
       </c>
       <c r="X58">
-        <v>3.66963655548922e-07</v>
+        <v>0.16281916859690054</v>
       </c>
       <c r="Y58">
-        <v>6.0587344005227442e-06</v>
+        <v>0.0035055894842189721</v>
       </c>
       <c r="Z58">
-        <v>6.6836245041537551e-07</v>
+        <v>0.00090134498627962979</v>
       </c>
       <c r="AA58">
-        <v>0.9893043313123997</v>
+        <v>4.0604949922294483e-05</v>
       </c>
       <c r="AB58">
-        <v>3.6159931668113542e-12</v>
+        <v>7.1026912983621235e-07</v>
       </c>
       <c r="AC58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.0631383746620699e-13</v>
       </c>
       <c r="AD58">
-        <v>2.2201832638144947e-14</v>
+        <v>4.3517790002515774e-05</v>
       </c>
       <c r="AE58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.0631383746620699e-13</v>
       </c>
       <c r="AF58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.063138374662076e-13</v>
       </c>
       <c r="AG58">
-        <v>2.2201832638144947e-14</v>
+        <v>1.7545930905053037e-11</v>
       </c>
       <c r="AH58">
-        <v>2.2201832638144947e-14</v>
+        <v>2.0631383746620742e-13</v>
       </c>
       <c r="AI58">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
+      <c r="A59" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>9.4990542470313892e-05</v>
+        <v>1.3837338527970845e-07</v>
       </c>
       <c r="C59">
-        <v>8.6116109007452166e-09</v>
+        <v>9.7846478071223111e-08</v>
       </c>
       <c r="D59">
-        <v>9.7085219299036232e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="E59">
-        <v>1.3215643344316726e-09</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="F59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="G59">
-        <v>3.7702980879125619e-10</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="H59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="I59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="J59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="K59">
-        <v>4.9895986578879657e-12</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="L59">
-        <v>1.6628575354594582e-09</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="M59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="N59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="O59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="P59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="Q59">
-        <v>0.010814391532513304</v>
+        <v>0.0014547417658243294</v>
       </c>
       <c r="R59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="S59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="T59">
-        <v>1.4691114563980892e-09</v>
+        <v>1.7666874906639783e-11</v>
       </c>
       <c r="U59">
-        <v>2.2207710528963369e-14</v>
+        <v>3.4001199506805732e-09</v>
       </c>
       <c r="V59">
-        <v>4.2508604988314346e-07</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="W59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="X59">
-        <v>0.63092558740572413</v>
+        <v>0.00018740170267937499</v>
       </c>
       <c r="Y59">
-        <v>0.35813442712466093</v>
+        <v>4.9875593154048894e-05</v>
       </c>
       <c r="Z59">
-        <v>8.2280518129393937e-09</v>
+        <v>3.3179429666812705e-11</v>
       </c>
       <c r="AA59">
-        <v>1.0155948541084595e-07</v>
+        <v>0.99830773927720262</v>
       </c>
       <c r="AB59">
-        <v>3.0055070104610037e-05</v>
+        <v>1.9513825670630977e-09</v>
       </c>
       <c r="AC59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="AD59">
-        <v>3.3013567097129899e-12</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="AE59">
-        <v>2.2207710528963369e-14</v>
+        <v>3.8439079295639918e-11</v>
       </c>
       <c r="AF59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="AG59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="AH59">
-        <v>2.2207710528963369e-14</v>
+        <v>2.2203329492957548e-14</v>
       </c>
       <c r="AI59">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
+      <c r="A60" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>1.6879768906582238e-07</v>
+        <v>2.3679846774214642e-10</v>
       </c>
       <c r="C60">
-        <v>3.2750979083174463e-08</v>
+        <v>0.0078926318224134089</v>
       </c>
       <c r="D60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="E60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="F60">
-        <v>2.2201961264372668e-14</v>
+        <v>1.2122258633705521e-06</v>
       </c>
       <c r="G60">
-        <v>2.2201961264372668e-14</v>
+        <v>1.1653796893542135e-07</v>
       </c>
       <c r="H60">
-        <v>2.2201961264372668e-14</v>
+        <v>4.1802228312056491e-10</v>
       </c>
       <c r="I60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="J60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="K60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="L60">
-        <v>2.2201961264372668e-14</v>
+        <v>0.0075242942232378483</v>
       </c>
       <c r="M60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="N60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="O60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="P60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="Q60">
-        <v>0.0026658322762537008</v>
+        <v>0.98446309291521361</v>
       </c>
       <c r="R60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="S60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="T60">
-        <v>1.209830037044338e-11</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="U60">
-        <v>6.5324528326857232e-09</v>
+        <v>4.8241020139472936e-08</v>
       </c>
       <c r="V60">
-        <v>2.2201961264372668e-14</v>
+        <v>3.1586391269983995e-10</v>
       </c>
       <c r="W60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="X60">
-        <v>0.0010343797714448537</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="Y60">
-        <v>5.923743185440923e-05</v>
+        <v>5.4222870540286593e-09</v>
       </c>
       <c r="Z60">
-        <v>1.0443744530426462e-11</v>
+        <v>8.8482812546945884e-07</v>
       </c>
       <c r="AA60">
-        <v>0.9962403246888617</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="AB60">
-        <v>1.7702744678240659e-08</v>
+        <v>1.8219212702792474e-06</v>
       </c>
       <c r="AC60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="AD60">
-        <v>2.2201961264372668e-14</v>
+        <v>0.00011589089147116836</v>
       </c>
       <c r="AE60">
-        <v>2.4689288882820131e-11</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="AF60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="AG60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="AH60">
-        <v>2.2201961264372668e-14</v>
+        <v>2.2203350113128579e-14</v>
       </c>
       <c r="AI60">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
+      <c r="A61" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>4.3179493826320698e-11</v>
+        <v>4.9582790961658118e-06</v>
       </c>
       <c r="C61">
-        <v>0.0064541569008799635</v>
+        <v>0.0017402052702390129</v>
       </c>
       <c r="D61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="E61">
-        <v>2.220267168087677e-14</v>
+        <v>3.1287049744351914e-12</v>
       </c>
       <c r="F61">
-        <v>5.4152619081339412e-08</v>
+        <v>9.5133709476527742e-07</v>
       </c>
       <c r="G61">
-        <v>3.3280864248093934e-08</v>
+        <v>1.7831546250914353e-09</v>
       </c>
       <c r="H61">
-        <v>2.2853987316000213e-10</v>
+        <v>5.3402858529466117e-12</v>
       </c>
       <c r="I61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="J61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="K61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="L61">
-        <v>0.0041730958156429698</v>
+        <v>0.0085286834006865382</v>
       </c>
       <c r="M61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="N61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="O61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="P61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="Q61">
-        <v>0.98935277172897673</v>
+        <v>0.98966021150808903</v>
       </c>
       <c r="R61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="S61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="T61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="U61">
-        <v>6.3934125339892764e-07</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="V61">
-        <v>3.3848239982282704e-12</v>
+        <v>2.0207764647706298e-08</v>
       </c>
       <c r="W61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="X61">
-        <v>2.220267168087677e-14</v>
+        <v>3.2053344325653369e-06</v>
       </c>
       <c r="Y61">
-        <v>5.7147048234762291e-10</v>
+        <v>4.5499966210028291e-06</v>
       </c>
       <c r="Z61">
-        <v>3.0356213197763977e-06</v>
+        <v>2.5683798195966413e-11</v>
       </c>
       <c r="AA61">
-        <v>2.220267168087677e-14</v>
+        <v>5.4853001535823234e-14</v>
       </c>
       <c r="AB61">
-        <v>1.1044569026108164e-05</v>
+        <v>1.7463186985522454e-09</v>
       </c>
       <c r="AC61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="AD61">
-        <v>5.1677423989346555e-06</v>
+        <v>5.7211101896125711e-05</v>
       </c>
       <c r="AE61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="AF61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="AG61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="AH61">
-        <v>2.220267168087677e-14</v>
+        <v>2.2202427871854643e-14</v>
       </c>
       <c r="AI61">
         <v>16</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
+      <c r="A62" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>1.3268107920759629e-06</v>
+        <v>3.1248747824050104e-08</v>
       </c>
       <c r="C62">
-        <v>0.00063427330601083557</v>
+        <v>1.3047745634641463e-08</v>
       </c>
       <c r="D62">
-        <v>2.2199789644254579e-14</v>
+        <v>1.0205484382433222e-08</v>
       </c>
       <c r="E62">
-        <v>2.9126084216104279e-12</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="F62">
-        <v>1.0902434840487962e-06</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="G62">
-        <v>6.3584652736925999e-10</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="H62">
-        <v>2.4395625226676555e-11</v>
+        <v>9.6525455829761609e-13</v>
       </c>
       <c r="I62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="J62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="K62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="L62">
-        <v>0.072376086249108504</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="M62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="N62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="O62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="P62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="Q62">
-        <v>0.92691097620217178</v>
+        <v>0.00039519997551221619</v>
       </c>
       <c r="R62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="S62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="T62">
-        <v>2.2199789644254579e-14</v>
+        <v>1.5277660452873677e-13</v>
       </c>
       <c r="U62">
-        <v>2.2199789644254579e-14</v>
+        <v>1.9044062845798825e-08</v>
       </c>
       <c r="V62">
-        <v>1.2353936100565597e-07</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="W62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="X62">
-        <v>1.6930312532155418e-06</v>
+        <v>5.5174178795393695e-06</v>
       </c>
       <c r="Y62">
-        <v>3.6602239238371245e-06</v>
+        <v>0.00068306819657224622</v>
       </c>
       <c r="Z62">
-        <v>1.264088029668551e-11</v>
+        <v>3.0880711429310449e-06</v>
       </c>
       <c r="AA62">
-        <v>9.8336519302783788e-14</v>
+        <v>0.9989110917924312</v>
       </c>
       <c r="AB62">
-        <v>2.9831940294242081e-09</v>
+        <v>1.9597782339970293e-06</v>
       </c>
       <c r="AC62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="AD62">
-        <v>7.0766734407124788e-05</v>
+        <v>1.2206252174132095e-09</v>
       </c>
       <c r="AE62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="AF62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="AG62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="AH62">
-        <v>2.2199789644254579e-14</v>
+        <v>2.2203730201684281e-14</v>
       </c>
       <c r="AI62">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
+      <c r="A63" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>1.4837243398568261e-07</v>
+        <v>6.1100142216036359e-05</v>
       </c>
       <c r="C63">
-        <v>4.3354016978607946e-09</v>
+        <v>4.7948837368136709e-09</v>
       </c>
       <c r="D63">
-        <v>2.875583186711218e-08</v>
+        <v>6.9867333404621883e-09</v>
       </c>
       <c r="E63">
-        <v>2.2203601935957881e-14</v>
+        <v>8.0080463107474629e-09</v>
       </c>
       <c r="F63">
-        <v>2.2203601935957881e-14</v>
+        <v>0.00015464185226293594</v>
       </c>
       <c r="G63">
-        <v>2.2203601935957881e-14</v>
+        <v>6.9789985214345846e-08</v>
       </c>
       <c r="H63">
-        <v>2.4826716571764458e-12</v>
+        <v>0.0023250012003929411</v>
       </c>
       <c r="I63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174472931e-14</v>
       </c>
       <c r="J63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174472943e-14</v>
       </c>
       <c r="K63">
-        <v>2.2203601935957881e-14</v>
+        <v>1.702235336123277e-08</v>
       </c>
       <c r="L63">
-        <v>2.2203601935957881e-14</v>
+        <v>1.4681230063014576e-08</v>
       </c>
       <c r="M63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174472842e-14</v>
       </c>
       <c r="N63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174472792e-14</v>
       </c>
       <c r="O63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174472792e-14</v>
       </c>
       <c r="P63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174472855e-14</v>
       </c>
       <c r="Q63">
-        <v>0.00017926916409145263</v>
+        <v>0.73023375191585049</v>
       </c>
       <c r="R63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174473587e-14</v>
       </c>
       <c r="S63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174473713e-14</v>
       </c>
       <c r="T63">
-        <v>2.4541090291163125e-13</v>
+        <v>7.7264438851051544e-07</v>
       </c>
       <c r="U63">
-        <v>3.6044087416262404e-08</v>
+        <v>7.5989950174473713e-14</v>
       </c>
       <c r="V63">
-        <v>2.2203601935957881e-14</v>
+        <v>0.25249707645547104</v>
       </c>
       <c r="W63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174473726e-14</v>
       </c>
       <c r="X63">
-        <v>5.0986252141589144e-06</v>
+        <v>1.5375550306537085e-06</v>
       </c>
       <c r="Y63">
-        <v>0.0010914056541147423</v>
+        <v>0.0025852588857569751</v>
       </c>
       <c r="Z63">
-        <v>2.6488388002782873e-06</v>
+        <v>3.4916012325626138e-05</v>
       </c>
       <c r="AA63">
-        <v>0.99871905142953221</v>
+        <v>4.3604238049735731e-06</v>
       </c>
       <c r="AB63">
-        <v>2.3082497649410594e-06</v>
+        <v>2.5915113747509528e-08</v>
       </c>
       <c r="AC63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174473726e-14</v>
       </c>
       <c r="AD63">
-        <v>5.275551085482877e-10</v>
+        <v>0.01210143571301436</v>
       </c>
       <c r="AE63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174473726e-14</v>
       </c>
       <c r="AF63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174473726e-14</v>
       </c>
       <c r="AG63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174473726e-14</v>
       </c>
       <c r="AH63">
-        <v>2.2203601935957881e-14</v>
+        <v>7.5989950174473713e-14</v>
       </c>
       <c r="AI63">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
+      <c r="A64" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>5.8904869094755686e-05</v>
+        <v>0.08151769455659208</v>
       </c>
       <c r="C64">
-        <v>1.2023063585057955e-08</v>
+        <v>1.7747194732478558e-06</v>
       </c>
       <c r="D64">
-        <v>3.5400775657725662e-11</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="E64">
-        <v>2.2715189659721941e-10</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="F64">
-        <v>2.8153311706883784e-05</v>
+        <v>3.3326126844069391e-14</v>
       </c>
       <c r="G64">
-        <v>7.5939571523129529e-09</v>
+        <v>1.1100849336207692e-11</v>
       </c>
       <c r="H64">
-        <v>0.00012608202285998058</v>
+        <v>4.0996796032195116e-14</v>
       </c>
       <c r="I64">
-        <v>4.4316039927069406e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="J64">
-        <v>4.4316039927069406e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="K64">
-        <v>5.3223947397375129e-10</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="L64">
-        <v>7.8610036531323742e-08</v>
+        <v>4.6205148047139187e-08</v>
       </c>
       <c r="M64">
-        <v>4.4316039927069412e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="N64">
-        <v>4.4316039927069412e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="O64">
-        <v>4.4316039927069412e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="P64">
-        <v>4.4316039927069412e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="Q64">
-        <v>0.76866440464353702</v>
+        <v>0.91846468784664215</v>
       </c>
       <c r="R64">
-        <v>4.4316039927069412e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="S64">
-        <v>4.4316039927069406e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="T64">
-        <v>2.6292223852171946e-07</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="U64">
-        <v>4.4316039927069898e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="V64">
-        <v>0.22194182069067869</v>
+        <v>5.5214443490297753e-10</v>
       </c>
       <c r="W64">
-        <v>4.4316039927069419e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="X64">
-        <v>3.9811281802006342e-07</v>
+        <v>2.9620786058832012e-08</v>
       </c>
       <c r="Y64">
-        <v>0.0028745525416320702</v>
+        <v>1.576531087112599e-05</v>
       </c>
       <c r="Z64">
-        <v>3.5104799222142891e-06</v>
+        <v>2.4537699101129725e-11</v>
       </c>
       <c r="AA64">
-        <v>2.8221156060940037e-07</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="AB64">
-        <v>9.3388837512819201e-09</v>
+        <v>4.4708152704977763e-11</v>
       </c>
       <c r="AC64">
-        <v>4.4316039927069419e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="AD64">
-        <v>0.0063015198325531083</v>
+        <v>1.1074778968490301e-09</v>
       </c>
       <c r="AE64">
-        <v>4.4316039927069406e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="AF64">
-        <v>4.4316039927069406e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="AG64">
-        <v>4.4316039927069406e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="AH64">
-        <v>4.4316039927069406e-14</v>
+        <v>2.2201857622600224e-14</v>
       </c>
       <c r="AI64">
         <v>16</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
+      <c r="A65" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>0.081494408878523203</v>
+        <v>0.013945385777002132</v>
       </c>
       <c r="C65">
-        <v>9.9557385775815969e-07</v>
+        <v>5.8235725437293378e-11</v>
       </c>
       <c r="D65">
-        <v>2.2201940528363141e-14</v>
+        <v>7.8512810628599133e-08</v>
       </c>
       <c r="E65">
-        <v>2.2201940528363141e-14</v>
+        <v>4.6204089671052706e-12</v>
       </c>
       <c r="F65">
-        <v>2.2201940528363141e-14</v>
+        <v>7.7515470062328748e-14</v>
       </c>
       <c r="G65">
-        <v>4.337393343062777e-12</v>
+        <v>7.0106405209038116e-08</v>
       </c>
       <c r="H65">
-        <v>2.2201940528363141e-14</v>
+        <v>3.0769762599829422e-06</v>
       </c>
       <c r="I65">
-        <v>2.2201940528363141e-14</v>
+        <v>2.2201966323772688e-14</v>
       </c>
       <c r="J65">
-        <v>2.2201940528363141e-14</v>
+        <v>2.2201966323772688e-14</v>
       </c>
       <c r="K65">
-        <v>2.2201940528363141e-14</v>
+        <v>1.3681919910296866e-09</v>
       </c>
       <c r="L65">
-        <v>4.414292840608759e-08</v>
+        <v>4.2868242134129879e-07</v>
       </c>
       <c r="M65">
-        <v>2.2201940528363141e-14</v>
+        <v>6.9896165649078615e-14</v>
       </c>
       <c r="N65">
-        <v>2.2201940528363141e-14</v>
+        <v>2.2201966323772688e-14</v>
       </c>
       <c r="O65">
-        <v>2.2201940528363141e-14</v>
+        <v>2.2201966323772688e-14</v>
       </c>
       <c r="P65">
-        <v>2.2201940528363141e-14</v>
+        <v>2.2201966323772688e-14</v>
       </c>
       <c r="Q65">
-        <v>0.91849287472121377</v>
+        <v>0.98497989898104266</v>
       </c>
       <c r="R65">
-        <v>2.2201940528363141e-14</v>
+        <v>2.2201966323772688e-14</v>
       </c>
       <c r="S65">
-        <v>2.2201940528363141e-14</v>
+        <v>2.2201966323772688e-14</v>
       </c>
       <c r="T65">
-        <v>2.2201940528363141e-14</v>
+        <v>7.0562212388825394e-06</v>
       </c>
       <c r="U65">
-        <v>2.2201940528363141e-14</v>
+        <v>1.0618852330747533e-06</v>
       </c>
       <c r="V65">
-        <v>8.4694928178765733e-11</v>
+        <v>0.00010846396576096344</v>
       </c>
       <c r="W65">
-        <v>2.2201940528363141e-14</v>
+        <v>2.2201966323772688e-14</v>
       </c>
       <c r="X65">
-        <v>1.4209088187939553e-08</v>
+        <v>7.6979830577358351e-05</v>
       </c>
       <c r="Y65">
-        <v>1.1662177176469496e-05</v>
+        <v>0.00080224278409703328</v>
       </c>
       <c r="Z65">
-        <v>1.8641151693959374e-11</v>
+        <v>1.2645312956558803e-06</v>
       </c>
       <c r="AA65">
-        <v>2.2201940528363141e-14</v>
+        <v>2.5006869508180461e-05</v>
       </c>
       <c r="AB65">
-        <v>2.9659116297832756e-11</v>
+        <v>4.7304620457033699e-05</v>
       </c>
       <c r="AC65">
-        <v>2.2201940528363141e-14</v>
+        <v>2.2201966323772688e-14</v>
       </c>
       <c r="AD65">
-        <v>1.5939123747435702e-10</v>
+        <v>2.7282755345347441e-09</v>
       </c>
       <c r="AE65">
-        <v>2.2201940528363141e-14</v>
+        <v>9.8959025471034196e-12</v>
       </c>
       <c r="AF65">
-        <v>2.2201940528363141e-14</v>
+        <v>2.2201966323772688e-14</v>
       </c>
       <c r="AG65">
-        <v>2.2201940528363141e-14</v>
+        <v>1.676086278709437e-06</v>
       </c>
       <c r="AH65">
-        <v>2.2201940528363141e-14</v>
+        <v>2.2201966323772688e-14</v>
       </c>
       <c r="AI65">
         <v>16</v>
